--- a/Вычислительная математика/Курсовой проект/Решение задачи.xlsx
+++ b/Вычислительная математика/Курсовой проект/Решение задачи.xlsx
@@ -96,15 +96,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -112,29 +124,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
@@ -151,23 +200,16 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -181,7 +223,51 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -233,6 +319,14 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -241,6 +335,26 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -270,7 +384,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -284,6 +398,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -301,74 +416,16 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -500,14 +557,14 @@
             <a:t>Решение дифференциального уравнения </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none">
+            <a:rPr lang="en-US" sz="1600" b="0" i="1" u="none">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>y'(x) = sinx</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" baseline="0">
+            <a:rPr lang="en-US" sz="1600" b="0" i="1" u="none" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
@@ -524,21 +581,21 @@
             <a:t>с начальным условием </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" baseline="0">
+            <a:rPr lang="en-US" sz="1600" b="0" i="1" u="none" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>y(0) = y</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" baseline="-25000">
+            <a:rPr lang="en-US" sz="1600" b="0" i="1" u="none" baseline="-25000">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>0</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" baseline="0">
+            <a:rPr lang="en-US" sz="1600" b="0" i="1" u="none" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
@@ -564,33 +621,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A9:G111" totalsRowCount="1" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
-  <autoFilter ref="A9:G111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A9:G111" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8" headerRowBorderDxfId="7">
+  <autoFilter ref="A9:G110"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Итерация" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="2" name="Аргумент" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="1" name="Итерация" dataDxfId="14" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Аргумент" dataDxfId="11" totalsRowDxfId="5">
       <calculatedColumnFormula xml:space="preserve"> A10 * $B$7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Функция ур - 3" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="3" name="Функция ур - 3" dataDxfId="13" totalsRowDxfId="4">
       <calculatedColumnFormula xml:space="preserve"> SIN(B10) - D10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Адамс 3" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="4" name="Адамс 3" totalsRowFunction="custom" totalsRowDxfId="2">
       <calculatedColumnFormula xml:space="preserve"> D9 + ($B$7/12) * (23 * C9 - 16 * C8 + 5 * C7)</calculatedColumnFormula>
       <totalsRowFormula>SUM(D10:D60)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Функция ур. 4" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="5" name="Функция ур. 4" dataDxfId="12" totalsRowDxfId="3">
       <calculatedColumnFormula xml:space="preserve"> SIN(B10) - F10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Адамс 4" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="6" name="Адамс 4" totalsRowFunction="custom" totalsRowDxfId="1">
       <calculatedColumnFormula>F9+$B$7*(55*E9 - 59*E8+37*E7-9*E6)/24</calculatedColumnFormula>
       <totalsRowFormula>SUM(F10:F60)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Точное значение" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="7" name="Точное значение" totalsRowFunction="custom" totalsRowDxfId="0">
       <calculatedColumnFormula xml:space="preserve"> (SIN(B10) - COS(B10) + EXP(-B10) * (1 + 2 * $B$6)) / 2</calculatedColumnFormula>
       <totalsRowFormula>SUM(G10:G60)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -849,7 +906,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -859,19 +916,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -880,11 +937,11 @@
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
@@ -893,11 +950,11 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="10">
         <v>0.01</v>
       </c>
       <c r="C7" s="3"/>
@@ -906,7 +963,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -915,1513 +972,1513 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>0</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <f xml:space="preserve"> A10 * $B$7</f>
         <v>0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <f xml:space="preserve"> SIN(B10) - D10</f>
         <v>-2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <f>$B$6</f>
         <v>2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <f xml:space="preserve"> SIN(B10) - F10</f>
         <v>-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <f>D10</f>
         <v>2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <f xml:space="preserve"> (SIN(B10) - COS(B10) + EXP(-B10) * (1 + 2 * $B$6)) / 2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <f t="shared" ref="B11:B74" si="0" xml:space="preserve"> A11 * $B$7</f>
         <v>0.01</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <f t="shared" ref="C11:C74" si="1" xml:space="preserve"> SIN(B11) - D11</f>
         <v>-1.9700001666658333</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <f xml:space="preserve"> D10 + $B$7 * (SIN(B10) - D10)</f>
         <v>1.98</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <f t="shared" ref="E11:E74" si="2" xml:space="preserve"> SIN(B11) - F11</f>
         <v>-1.9700001666658333</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <f t="shared" ref="F11:F13" si="3">D11</f>
         <v>1.98</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="5">
         <f xml:space="preserve"> (SIN(B11) - COS(B11) + EXP(-B11) * (1 + 2 * $B$6)) / 2</f>
         <v>1.9801495008316712</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <f t="shared" si="1"/>
         <v>-1.9403013316400084</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <f t="shared" ref="D12:D13" si="4" xml:space="preserve"> D11 + $B$7 * (SIN(B11) - D11)</f>
         <v>1.9602999983333416</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <f t="shared" si="2"/>
         <v>-1.9403013316400084</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="6">
         <f t="shared" si="3"/>
         <v>1.9602999983333416</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="5">
         <f t="shared" ref="G12:G75" si="5" xml:space="preserve"> (SIN(B12) - COS(B12) + EXP(-B12) * (1 + 2 * $B$6)) / 2</f>
         <v>1.9605960132802658</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <f t="shared" si="1"/>
         <v>-1.9109014848144459</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <f t="shared" si="4"/>
         <v>1.9408969850169415</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <f xml:space="preserve"> SIN(B13) - F13</f>
         <v>-1.9109014848144459</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="6">
         <f t="shared" si="3"/>
         <v>1.9408969850169415</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <f t="shared" si="5"/>
         <v>1.9413365670980243</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <f t="shared" si="1"/>
         <v>-1.8819443894321228</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6">
         <f xml:space="preserve"> D13 + ($B$7/12) * (23 * C13 - 16 * C12 + 5 * C11)</f>
         <v>1.921933723618757</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <f t="shared" si="2"/>
         <v>-1.8819443969700282</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="6">
         <f>F13+$B$7*(55*E13 - 59*E12+37*E11-9*E10)/24</f>
         <v>1.9219337311566624</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="5">
         <f t="shared" si="5"/>
         <v>1.922368211643636</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <f t="shared" si="1"/>
         <v>-1.8532780511329889</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <f t="shared" ref="D15:D78" si="6" xml:space="preserve"> D14 + ($B$7/12) * (23 * C14 - 16 * C13 + 5 * C12)</f>
         <v>1.9032572204036673</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <f t="shared" si="2"/>
         <v>-1.8532775193859894</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="6">
         <f t="shared" ref="F15:F78" si="7">F14+$B$7*(55*E14 - 59*E13+37*E12-9*E11)/24</f>
         <v>1.9032566886566677</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="5">
         <f t="shared" si="5"/>
         <v>1.9036880156896412</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>6</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <f t="shared" si="1"/>
         <v>-1.8249025536165417</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="6">
         <f t="shared" si="6"/>
         <v>1.8848665600959864</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <f t="shared" si="2"/>
         <v>-1.824902604219568</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="6">
         <f t="shared" si="7"/>
         <v>1.8848666106990126</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="5">
         <f t="shared" si="5"/>
         <v>1.8852930672327419</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>7</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <f t="shared" si="1"/>
         <v>-1.796815352873276</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="6">
         <f t="shared" si="6"/>
         <v>1.8667582002108087</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <f t="shared" si="2"/>
         <v>-1.7968153888144534</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="6">
         <f t="shared" si="7"/>
         <v>1.8667582361519861</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="5">
         <f t="shared" si="5"/>
         <v>1.8671804733069974</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>8</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <f t="shared" si="1"/>
         <v>-1.7690145874800647</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="6">
         <f t="shared" si="6"/>
         <v>1.8489292814492373</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <f t="shared" si="2"/>
         <v>-1.7690146416076502</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="6">
         <f t="shared" si="7"/>
         <v>1.8489293355768228</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="5">
         <f t="shared" si="5"/>
         <v>1.849347359799866</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <f t="shared" si="1"/>
         <v>-1.7414983967227664</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="6">
         <f t="shared" si="6"/>
         <v>1.8313769459207774</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <f t="shared" si="2"/>
         <v>-1.7414984546996377</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="6">
         <f t="shared" si="7"/>
         <v>1.8313770038976487</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="5">
         <f t="shared" si="5"/>
         <v>1.8317908712710791</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>10</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <f t="shared" si="1"/>
         <v>-1.7142649405328583</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="6">
         <f t="shared" si="6"/>
         <v>1.8140983571796865</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <f t="shared" si="2"/>
         <v>-1.7142650051250756</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="6">
         <f t="shared" si="7"/>
         <v>1.8140984217719038</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="5">
         <f t="shared" si="5"/>
         <v>1.8145081707742998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>11</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="6">
         <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <f t="shared" si="1"/>
         <v>-1.687312396157435</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="6">
         <f t="shared" si="6"/>
         <v>1.7970906969946099</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <f t="shared" si="2"/>
         <v>-1.6873124668952484</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="6">
         <f t="shared" si="7"/>
         <v>1.7970907677324233</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="5">
         <f t="shared" si="5"/>
         <v>1.7974964396815596</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>12</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <f t="shared" si="1"/>
         <v>-1.6606389580000995</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="6">
         <f t="shared" si="6"/>
         <v>1.7803511652890189</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <f t="shared" si="2"/>
         <v>-1.6606390348492217</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="6">
         <f t="shared" si="7"/>
         <v>1.7803512421381411</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="5">
         <f t="shared" si="5"/>
         <v>1.7807528775104202</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>13</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <f t="shared" si="1"/>
         <v>-1.6342428373375344</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="6">
         <f t="shared" si="6"/>
         <v>1.7638769799572291</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <f t="shared" si="2"/>
         <v>-1.6342429201571052</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="6">
         <f t="shared" si="7"/>
         <v>1.7638770627768001</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="5">
         <f t="shared" si="5"/>
         <v>1.7642747017538567</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>14</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <f t="shared" si="1"/>
         <v>-1.6081222620533686</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="6">
         <f t="shared" si="6"/>
         <v>1.7476653766976051</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="5">
         <f t="shared" si="2"/>
         <v>-1.6081223507235907</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="6">
         <f t="shared" si="7"/>
         <v>1.7476654653678272</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="5">
         <f t="shared" si="5"/>
         <v>1.7480591477128145</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>15</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <f t="shared" si="1"/>
         <v>-1.5822754763741498</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="6">
         <f t="shared" si="6"/>
         <v>1.7317136088477489</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <f t="shared" si="2"/>
         <v>-1.5822755707742728</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="6">
         <f t="shared" si="7"/>
         <v>1.731713703247872</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="5">
         <f t="shared" si="5"/>
         <v>1.7321034683314229</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>16</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <f t="shared" si="1"/>
         <v>-1.556700740608137</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="6">
         <f t="shared" si="6"/>
         <v>1.716018947222383</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="5">
         <f t="shared" si="2"/>
         <v>-1.5567008406202665</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="6">
         <f t="shared" si="7"/>
         <v>1.7160190472345125</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="5">
         <f t="shared" si="5"/>
         <v>1.716404934034838</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>17</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="5">
         <f t="shared" si="1"/>
         <v>-1.5313963308868308</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="6">
         <f t="shared" si="6"/>
         <v>1.7005786799538267</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="5">
         <f t="shared" si="2"/>
         <v>-1.5313964363951031</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="6">
         <f t="shared" si="7"/>
         <v>1.7005787854620993</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="5">
         <f t="shared" si="5"/>
         <v>1.7009608325696768</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>18</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="5">
         <f t="shared" si="1"/>
         <v>-1.5063605389092212</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="6">
         <f t="shared" si="6"/>
         <v>1.6853901123350454</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="5">
         <f t="shared" si="2"/>
         <v>-1.5063606497999122</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="6">
         <f t="shared" si="7"/>
         <v>1.6853902232257365</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="5">
         <f t="shared" si="5"/>
         <v>1.6857684688470314</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>19</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="6">
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="5">
         <f t="shared" si="1"/>
         <v>-1.4815916716887418</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="6">
         <f t="shared" si="6"/>
         <v>1.6704505666652425</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="5">
         <f t="shared" si="2"/>
         <v>-1.4815917878502085</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="6">
         <f t="shared" si="7"/>
         <v>1.6704506828267092</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="5">
         <f t="shared" si="5"/>
         <v>1.6708251647880208</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>20</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="6">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <f t="shared" si="1"/>
         <v>-1.4570880513029083</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="6">
         <f t="shared" si="6"/>
         <v>1.6557573820979694</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="5">
         <f t="shared" si="2"/>
         <v>-1.4570881726255633</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="6">
         <f t="shared" si="7"/>
         <v>1.6557575034206244</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="5">
         <f t="shared" si="5"/>
         <v>1.6561282591718645</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>21</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="6">
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="5">
         <f t="shared" si="1"/>
         <v>-1.4328480146456255</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="6">
         <f t="shared" si="6"/>
         <v>1.6413079144917251</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="5">
         <f t="shared" si="2"/>
         <v>-1.4328481410219063</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="6">
         <f t="shared" si="7"/>
         <v>1.6413080408680059</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="5">
         <f t="shared" si="5"/>
         <v>1.6416751074864433</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>22</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
         <f t="shared" si="1"/>
         <v>-1.4088699131821503</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="6">
         <f t="shared" si="6"/>
         <v>1.6270995362630196</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="5">
         <f t="shared" si="2"/>
         <v>-1.4088700445064886</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="6">
         <f t="shared" si="7"/>
         <v>1.6270996675873579</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="5">
         <f t="shared" si="5"/>
         <v>1.6274630817813283</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>23</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>0.23</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="5">
         <f t="shared" si="1"/>
         <v>-1.3851521127066861</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="6">
         <f t="shared" si="6"/>
         <v>1.6131296362418746</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="5">
         <f t="shared" si="2"/>
         <v>-1.3851522488754786</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="6">
         <f t="shared" si="7"/>
         <v>1.613129772410667</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="5">
         <f t="shared" si="5"/>
         <v>1.6134895705232417</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>24</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="6">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="5">
         <f t="shared" si="1"/>
         <v>-1.3616929931026003</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="6">
         <f t="shared" si="6"/>
         <v>1.599395619529735</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="5">
         <f t="shared" si="2"/>
         <v>-1.3616931340141787</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="6">
         <f t="shared" si="7"/>
         <v>1.5993957604413134</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="5">
         <f t="shared" si="5"/>
         <v>1.599751978453936</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>25</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="6">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="5">
         <f t="shared" si="1"/>
         <v>-1.3384909481052423</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="6">
         <f t="shared" si="6"/>
         <v>1.5858949073597652</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="5">
         <f t="shared" si="2"/>
         <v>-1.3384910936598449</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="6">
         <f t="shared" si="7"/>
         <v>1.5858950529143678</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="5">
         <f t="shared" si="5"/>
         <v>1.5862477264504513</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="36" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>26</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="6">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="5">
         <f t="shared" si="1"/>
         <v>-1.3155443850673498</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="6">
         <f t="shared" si="6"/>
         <v>1.5726249369595049</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="5">
         <f t="shared" si="2"/>
         <v>-1.3155445351670922</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="6">
         <f t="shared" si="7"/>
         <v>1.5726250870592473</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="5">
         <f t="shared" si="5"/>
         <v>1.5729742513877367</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="37" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>27</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="6">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="5">
         <f t="shared" si="1"/>
         <v>-1.2928517247270253</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="6">
         <f t="shared" si="6"/>
         <v>1.5595831614158564</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="5">
         <f t="shared" si="2"/>
         <v>-1.2928518792758725</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="6">
         <f t="shared" si="7"/>
         <v>1.5595833159647037</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="5">
         <f t="shared" si="5"/>
         <v>1.5599290060036033</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>28</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="6">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="5">
         <f t="shared" si="1"/>
         <v>-1.2704114009782677</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="6">
         <f t="shared" si="6"/>
         <v>1.5467670495423813</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="5">
         <f t="shared" si="2"/>
         <v>-1.2704115598820063</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="6">
         <f t="shared" si="7"/>
         <v>1.5467672084461199</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="5">
         <f t="shared" si="5"/>
         <v>1.547109458765985</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="39" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>29</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="6">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="5">
         <f t="shared" si="1"/>
         <v>-1.2482218606440418</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="6">
         <f t="shared" si="6"/>
         <v>1.5341740857488775</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="5">
         <f t="shared" si="2"/>
         <v>-1.2482220238102522</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="6">
         <f t="shared" si="7"/>
         <v>1.5341742489150876</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="5">
         <f t="shared" si="5"/>
         <v>1.5345130937424822</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>30</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="6">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="5">
         <f t="shared" si="1"/>
         <v>-1.2262815632518747</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="6">
         <f t="shared" si="6"/>
         <v>1.5218017699132143</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="5">
         <f t="shared" si="2"/>
         <v>-1.2262817305899025</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="6">
         <f t="shared" si="7"/>
         <v>1.5218019372512421</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="5">
         <f t="shared" si="5"/>
         <v>1.5221374104721614</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="41" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>31</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="6">
         <f t="shared" si="0"/>
         <v>0.31</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="5">
         <f t="shared" si="1"/>
         <v>-1.2045889808119543</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="6">
         <f t="shared" si="6"/>
         <v>1.5096476172553979</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="5">
         <f t="shared" si="2"/>
         <v>-1.2045891522328855</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="6">
         <f t="shared" si="7"/>
         <v>1.5096477886763291</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="5">
         <f t="shared" si="5"/>
         <v>1.5099799238395883</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="42" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>32</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="6">
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="5">
         <f t="shared" si="1"/>
         <v>-1.1831425975977257</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="6">
         <f t="shared" si="6"/>
         <v>1.4977091582138435</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="5">
         <f t="shared" si="2"/>
         <v>-1.1831427730143589</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="6">
         <f t="shared" si="7"/>
         <v>1.4977093336304768</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="5">
         <f t="shared" si="5"/>
         <v>1.4980381639510658</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="43" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>33</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="6">
         <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="5">
         <f t="shared" si="1"/>
         <v>-1.1619409099289622</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="6">
         <f t="shared" si="6"/>
         <v>1.4859839383238305</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="5">
         <f t="shared" si="2"/>
         <v>-1.161941089255782</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="6">
         <f t="shared" si="7"/>
         <v>1.4859841176506503</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="5">
         <f t="shared" si="5"/>
         <v>1.4863096760130561</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="44" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>34</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="6">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="5">
         <f t="shared" si="1"/>
         <v>-1.1409824259572976</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="6">
         <f t="shared" si="6"/>
         <v>1.474469518098112</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="5">
         <f t="shared" si="2"/>
         <v>-1.1409826091104491</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="6">
         <f t="shared" si="7"/>
         <v>1.4744697012512635</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="5">
         <f t="shared" si="5"/>
         <v>1.4747920202127582</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="45" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>35</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="6">
         <f t="shared" si="0"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="5">
         <f t="shared" si="1"/>
         <v>-1.120265665454208</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="6">
         <f t="shared" si="6"/>
         <v>1.4631634729096594</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="5">
         <f t="shared" si="2"/>
         <v>-1.120265852351471</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="6">
         <f t="shared" si="7"/>
         <v>1.4631636598069224</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="5">
         <f t="shared" si="5"/>
         <v>1.4634827716008199</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>36</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="6">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="5">
         <f t="shared" si="1"/>
         <v>-1.0997891596014238</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="6">
         <f t="shared" si="6"/>
         <v>1.4520633928765136</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="5">
         <f t="shared" si="2"/>
         <v>-1.0997893501621872</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="6">
         <f t="shared" si="7"/>
         <v>1.452063583437277</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="5">
         <f t="shared" si="5"/>
         <v>1.4523795199761551</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="47" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>37</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="6">
         <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="5">
         <f t="shared" si="1"/>
         <v>-1.0795514507837582</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="6">
         <f t="shared" si="6"/>
         <v>1.4411668827487203</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="5">
         <f t="shared" si="2"/>
         <v>-1.079551644928995</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="6">
         <f t="shared" si="7"/>
         <v>1.4411670768939571</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="5">
         <f t="shared" si="5"/>
         <v>1.4414798697728504</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="48" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>38</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="6">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="5">
         <f t="shared" si="1"/>
         <v>-1.0595510923843421</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="6">
         <f t="shared" si="6"/>
         <v>1.4304715617973247</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="5">
         <f t="shared" si="2"/>
         <v>-1.0595512900365844</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="6">
         <f t="shared" si="7"/>
         <v>1.4304717594495671</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="5">
         <f t="shared" si="5"/>
         <v>1.4307814399491257</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="49" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>39</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="6">
         <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="5">
         <f t="shared" si="1"/>
         <v>-1.0397866485822409</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="6">
         <f t="shared" si="6"/>
         <v>1.4199750637054023</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="5">
         <f t="shared" si="2"/>
         <v>-1.039786849665556</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="6">
         <f t="shared" si="7"/>
         <v>1.4199752647887174</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="5">
         <f t="shared" si="5"/>
         <v>1.4202818638783359</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>40</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="6">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="5">
         <f t="shared" si="1"/>
         <v>-1.0202566941524509</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="6">
         <f t="shared" si="6"/>
         <v>1.4096750364611015</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="5">
         <f t="shared" si="2"/>
         <v>-1.0202568985924167</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="6">
         <f t="shared" si="7"/>
         <v>1.4096752409010673</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="5">
         <f t="shared" si="5"/>
         <v>1.4099787892419813</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="51" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>41</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="6">
         <f t="shared" si="0"/>
         <v>0.41000000000000003</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="5">
         <f t="shared" si="1"/>
         <v>-1.0009598142682516</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="6">
         <f t="shared" si="6"/>
         <v>1.3995691422526746</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="5">
         <f t="shared" si="2"/>
         <v>-1.0009600219919328</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="6">
         <f t="shared" si="7"/>
         <v>1.3995693499763557</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="5">
         <f t="shared" si="5"/>
         <v>1.3998698779247074</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="52" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>42</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="6">
         <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="5">
         <f t="shared" si="1"/>
         <v>-0.98189460430590292</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="6">
         <f t="shared" si="6"/>
         <v>1.3896550573654731</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="5">
         <f t="shared" si="2"/>
         <v>-0.9818948152418272</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="6">
         <f t="shared" si="7"/>
         <v>1.3896552683013974</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="5">
         <f t="shared" si="5"/>
         <v>1.3899528059112729</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="53" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>43</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="6">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="5">
         <f t="shared" si="1"/>
         <v>-0.963059669651674</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="6">
         <f t="shared" si="6"/>
         <v>1.3799304720808847</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="5">
         <f t="shared" si="2"/>
         <v>-0.96305988372980922</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="6">
         <f t="shared" si="7"/>
         <v>1.3799306861590199</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="5">
         <f t="shared" si="5"/>
         <v>1.3802252631854544</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="54" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>44</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="6">
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="5">
         <f t="shared" si="1"/>
         <v>-0.94445362551118905</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="6">
         <f t="shared" si="6"/>
         <v>1.3703930905771886</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="5">
         <f t="shared" si="2"/>
         <v>-0.94445384266291965</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="6">
         <f t="shared" si="7"/>
         <v>1.3703933077289192</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="5">
         <f t="shared" si="5"/>
         <v>1.3706849536308716</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="55" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <v>45</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="6">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="5">
         <f t="shared" si="1"/>
         <v>-0.92607509672107513</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="6">
         <f t="shared" si="6"/>
         <v>1.3610406308323053</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="5">
         <f t="shared" si="2"/>
         <v>-0.92607531687917977</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="6">
         <f t="shared" si="7"/>
         <v>1.3610408509904099</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="5">
         <f t="shared" si="5"/>
         <v>1.3613295949337099</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="56" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>46</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="6">
         <f t="shared" si="0"/>
         <v>0.46</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="5">
         <f t="shared" si="1"/>
         <v>-0.90792271756289877</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="6">
         <f t="shared" si="6"/>
         <v>1.3518708245284186</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="5">
         <f t="shared" si="2"/>
         <v>-0.90792294066152812</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="6">
         <f t="shared" si="7"/>
         <v>1.3518710476270479</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="5">
         <f t="shared" si="5"/>
         <v>1.3521569184873121</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="57" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <v>47</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="6">
         <f t="shared" si="0"/>
         <v>0.47000000000000003</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="5">
         <f t="shared" si="1"/>
         <v>-0.88999513157937904</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="6">
         <f t="shared" si="6"/>
         <v>1.3428814169584473</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="5">
         <f t="shared" si="2"/>
         <v>-0.88999535755403292</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="6">
         <f t="shared" si="7"/>
         <v>1.3428816429331012</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="5">
         <f t="shared" si="5"/>
         <v>1.3431646692986217</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="58" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>48</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="6">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="5">
         <f t="shared" si="1"/>
         <v>-0.87229099139286048</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="6">
         <f t="shared" si="6"/>
         <v>1.3340701669343433</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="5">
         <f t="shared" si="2"/>
         <v>-0.87229122018036631</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="6">
         <f t="shared" si="7"/>
         <v>1.3340703957218492</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="5">
         <f t="shared" si="5"/>
         <v>1.3343506058964516</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="59" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
         <v>49</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="6">
         <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="5">
         <f t="shared" si="1"/>
         <v>-0.85480895852603522</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="6">
         <f t="shared" si="6"/>
         <v>1.3254348466971932</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="5">
         <f t="shared" si="2"/>
         <v>-0.85480919006452605</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="6">
         <f t="shared" si="7"/>
         <v>1.3254350782356841</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="5">
         <f t="shared" si="5"/>
         <v>1.3257125002415586</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>50</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="5">
         <f t="shared" si="1"/>
         <v>-0.83754770322489858</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="6">
         <f t="shared" si="6"/>
         <v>1.3169732418291016</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="5">
         <f t="shared" si="2"/>
         <v>-0.83754793745379241</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="6">
         <f t="shared" si="7"/>
         <v>1.3169734760579954</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="5">
         <f t="shared" si="5"/>
         <v>1.3172481376384986</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>51</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="7">
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
@@ -2429,7 +2486,7 @@
         <f t="shared" si="1"/>
         <v>-0.82050590428392711</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="7">
         <f t="shared" si="6"/>
         <v>1.3086831511668346</v>
       </c>
@@ -2437,7 +2494,7 @@
         <f t="shared" si="2"/>
         <v>-0.82050614114390497</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="7">
         <f t="shared" si="7"/>
         <v>1.3086833880268125</v>
       </c>
@@ -2446,11 +2503,11 @@
         <v>1.3089553166492429</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>52</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="7">
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
@@ -2458,7 +2515,7 @@
         <f t="shared" si="1"/>
         <v>-0.80368224887346285</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="7">
         <f t="shared" si="6"/>
         <v>1.3005623867171996</v>
       </c>
@@ -2466,7 +2523,7 @@
         <f t="shared" si="2"/>
         <v>-0.80368248830644851</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="7">
         <f t="shared" si="7"/>
         <v>1.3005626261501853</v>
       </c>
@@ -2475,11 +2532,11 @@
         <v>1.3008318490085293</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>53</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="7">
         <f t="shared" si="0"/>
         <v>0.53</v>
       </c>
@@ -2487,7 +2544,7 @@
         <f t="shared" si="1"/>
         <v>-0.78707543236929334</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="7">
         <f t="shared" si="6"/>
         <v>1.2926087735741403</v>
       </c>
@@ -2495,7 +2552,7 @@
         <f t="shared" si="2"/>
         <v>-0.78707567431843251</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="7">
         <f t="shared" si="7"/>
         <v>1.2926090155232794</v>
       </c>
@@ -2504,11 +2561,11 @@
         <v>1.2928755595409309</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>54</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="7">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
@@ -2516,7 +2573,7 @@
         <f t="shared" si="1"/>
         <v>-0.77068415818441216</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="7">
         <f t="shared" si="6"/>
         <v>1.2848201498375253</v>
       </c>
@@ -2524,7 +2581,7 @@
         <f t="shared" si="2"/>
         <v>-0.77068440259405224</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="7">
         <f t="shared" si="7"/>
         <v>1.2848203942471654</v>
       </c>
@@ -2533,11 +2590,11 @@
         <v>1.2850842860796186</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>55</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="7">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
@@ -2545,7 +2602,7 @@
         <f t="shared" si="1"/>
         <v>-0.7545071376029493</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="7">
         <f t="shared" si="6"/>
         <v>1.2771943665336085</v>
       </c>
@@ -2553,7 +2610,7 @@
         <f t="shared" si="2"/>
         <v>-0.7545073844186192</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="7">
         <f t="shared" si="7"/>
         <v>1.2771946133492784</v>
       </c>
@@ -2562,11 +2619,11 @@
         <v>1.2774558793867934</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>56</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="7">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
@@ -2574,7 +2631,7 @@
         <f t="shared" si="1"/>
         <v>-0.73854308961625525</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="7">
         <f t="shared" si="6"/>
         <v>1.2697292875371387</v>
       </c>
@@ -2582,7 +2639,7 @@
         <f t="shared" si="2"/>
         <v>-0.7385433387846454</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="7">
         <f t="shared" si="7"/>
         <v>1.2697295367055288</v>
       </c>
@@ -2591,11 +2648,11 @@
         <v>1.2699882030757708</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>57</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="7">
         <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
@@ -2603,7 +2660,7 @@
         <f t="shared" si="1"/>
         <v>-0.72279074076112881</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="7">
         <f t="shared" si="6"/>
         <v>1.2624227894950981</v>
       </c>
@@ -2611,7 +2668,7 @@
         <f t="shared" si="2"/>
         <v>-0.72279099223007159</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="7">
         <f t="shared" si="7"/>
         <v>1.2624230409640409</v>
       </c>
@@ -2620,11 +2677,11 @@
         <v>1.262679133534693</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>58</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="7">
         <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
@@ -2632,7 +2689,7 @@
         <f t="shared" si="1"/>
         <v>-0.70724882496017405</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="7">
         <f t="shared" si="6"/>
         <v>1.2552727617520476</v>
       </c>
@@ -2640,7 +2697,7 @@
         <f t="shared" si="2"/>
         <v>-0.70724907867862474</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="7">
         <f t="shared" si="7"/>
         <v>1.2552730154704983</v>
       </c>
@@ -2649,11 +2706,11 @@
         <v>1.2555265598518484</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>59</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="7">
         <f t="shared" si="0"/>
         <v>0.59</v>
       </c>
@@ -2661,7 +2718,7 @@
         <f t="shared" si="1"/>
         <v>-0.69191608336427457</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="7">
         <f t="shared" si="6"/>
         <v>1.2482771062770583</v>
       </c>
@@ -2669,7 +2726,7 @@
         <f t="shared" si="2"/>
         <v>-0.69191633928229179</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="7">
         <f t="shared" si="7"/>
         <v>1.2482773621950756</v>
       </c>
@@ -2678,11 +2735,11 @@
         <v>1.2485283837425778</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>60</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="7">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -2690,7 +2747,7 @@
         <f t="shared" si="1"/>
         <v>-0.67679126419717195</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="7">
         <f t="shared" si="6"/>
         <v>1.2414337375922073</v>
       </c>
@@ -2698,7 +2755,7 @@
         <f t="shared" si="2"/>
         <v>-0.67679152226589945</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="7">
         <f t="shared" si="7"/>
         <v>1.2414339956609348</v>
       </c>
@@ -2707,11 +2764,11 @@
         <v>1.2416825194777446</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>61</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="7">
         <f t="shared" si="0"/>
         <v>0.61</v>
       </c>
@@ -2719,7 +2776,7 @@
         <f t="shared" si="1"/>
         <v>-0.6618731226021366</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="7">
         <f t="shared" si="6"/>
         <v>1.2347405827026179</v>
       </c>
@@ -2727,7 +2784,7 @@
         <f t="shared" si="2"/>
         <v>-0.66187338277378371</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="7">
         <f t="shared" si="7"/>
         <v>1.234740842874265</v>
       </c>
@@ -2736,11 +2793,11 @@
         <v>1.2349868938137503</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>62</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="7">
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
@@ -2748,7 +2805,7 @@
         <f t="shared" si="1"/>
         <v>-0.64716042049071631</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="7">
         <f t="shared" si="6"/>
         <v>1.2281955810280214</v>
       </c>
@@ -2756,7 +2813,7 @@
         <f t="shared" si="2"/>
         <v>-0.64716068271854021</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="7">
         <f t="shared" si="7"/>
         <v>1.2281958432558453</v>
       </c>
@@ -2765,11 +2822,11 @@
         <v>1.2284394459240719</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>63</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="7">
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
@@ -2777,7 +2834,7 @@
         <f t="shared" si="1"/>
         <v>-0.6326519263935535</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="7">
         <f t="shared" si="6"/>
         <v>1.221796684335823</v>
       </c>
@@ -2785,7 +2842,7 @@
         <f t="shared" si="2"/>
         <v>-0.63265219063184075</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="7">
         <f t="shared" si="7"/>
         <v>1.2217969485741103</v>
       </c>
@@ -2794,11 +2851,11 @@
         <v>1.2220381273323018</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>64</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="7">
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
@@ -2806,7 +2863,7 @@
         <f t="shared" si="1"/>
         <v>-0.61834641531325518</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="7">
         <f t="shared" si="6"/>
         <v>1.2155418566756473</v>
       </c>
@@ -2814,7 +2871,7 @@
         <f t="shared" si="2"/>
         <v>-0.61834668151730376</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="7">
         <f t="shared" si="7"/>
         <v>1.2155421228796959</v>
       </c>
@@ -2823,11 +2880,11 @@
         <v>1.2157809018466712</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>65</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="7">
         <f t="shared" ref="B75:B110" si="8" xml:space="preserve"> A75 * $B$7</f>
         <v>0.65</v>
       </c>
@@ -2835,7 +2892,7 @@
         <f t="shared" ref="C75:C110" si="9" xml:space="preserve"> SIN(B75) - D75</f>
         <v>-0.60424266857930642</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="7">
         <f t="shared" si="6"/>
         <v>1.209429074315346</v>
       </c>
@@ -2843,7 +2900,7 @@
         <f t="shared" ref="E75:E110" si="10" xml:space="preserve"> SIN(B75) - F75</f>
         <v>-0.60424293670540841</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="7">
         <f t="shared" si="7"/>
         <v>1.209429342441448</v>
       </c>
@@ -2852,11 +2909,11 @@
         <v>1.2096657454960318</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>66</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="7">
         <f t="shared" si="8"/>
         <v>0.66</v>
       </c>
@@ -2864,7 +2921,7 @@
         <f t="shared" si="9"/>
         <v>-0.5903394737050125</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="7">
         <f t="shared" si="6"/>
         <v>1.2034563256784463</v>
       </c>
@@ -2872,7 +2929,7 @@
         <f t="shared" si="10"/>
         <v>-0.59033974371043585</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="7">
         <f t="shared" si="7"/>
         <v>1.2034565956838696</v>
       </c>
@@ -2881,11 +2938,11 @@
         <v>1.2036906464672823</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>67</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="7">
         <f t="shared" si="8"/>
         <v>0.67</v>
       </c>
@@ -2893,7 +2950,7 @@
         <f t="shared" si="9"/>
         <v>-0.57663562424645942</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="7">
         <f t="shared" si="6"/>
         <v>1.1976216112830191</v>
       </c>
@@ -2901,7 +2958,7 @@
         <f t="shared" si="10"/>
         <v>-0.57663589608943133</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="7">
         <f t="shared" si="7"/>
         <v>1.197621883125991</v>
       </c>
@@ -2910,11 +2967,11 @@
         <v>1.1978536050442115</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>68</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="7">
         <f t="shared" si="8"/>
         <v>0.68</v>
       </c>
@@ -2922,7 +2979,7 @@
         <f t="shared" si="9"/>
         <v>-0.56312991966347969</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="7">
         <f t="shared" si="6"/>
         <v>1.1919229436819483</v>
       </c>
@@ -2930,7 +2987,7 @@
         <f t="shared" si="10"/>
         <v>-0.56313019330316927</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="7">
         <f t="shared" si="7"/>
         <v>1.1919232173216379</v>
       </c>
@@ -2939,11 +2996,11 @@
         <v>1.1921526335477441</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>69</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="7">
         <f t="shared" si="8"/>
         <v>0.69000000000000006</v>
       </c>
@@ -2951,7 +3008,7 @@
         <f t="shared" si="9"/>
         <v>-0.54982116518261226</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="7">
         <f t="shared" ref="D79:D110" si="12" xml:space="preserve"> D78 + ($B$7/12) * (23 * C78 - 16 * C77 + 5 * C76)</f>
         <v>1.1863583474045802</v>
       </c>
@@ -2959,7 +3016,7 @@
         <f t="shared" si="10"/>
         <v>-0.54982144057911342</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="7">
         <f t="shared" ref="F79:F110" si="13">F78+$B$7*(55*E78 - 59*E77+37*E76-9*E75)/24</f>
         <v>1.1863586228010814</v>
       </c>
@@ -2968,11 +3025,11 @@
         <v>1.1865857562775695</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>70</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="7">
         <f t="shared" si="8"/>
         <v>0.70000000000000007</v>
       </c>
@@ -2980,7 +3037,7 @@
         <f t="shared" si="9"/>
         <v>-0.53670817166204177</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="7">
         <f t="shared" si="12"/>
         <v>1.1809258588997329</v>
       </c>
@@ -2988,7 +3045,7 @@
         <f t="shared" si="10"/>
         <v>-0.53670844877635726</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="7">
         <f t="shared" si="13"/>
         <v>1.1809261360140484</v>
       </c>
@@ -2997,11 +3054,11 @@
         <v>1.1811510094551252</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>71</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="7">
         <f t="shared" si="8"/>
         <v>0.71</v>
       </c>
@@ -3009,7 +3066,7 @@
         <f t="shared" si="9"/>
         <v>-0.52378975545851081</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="7">
         <f t="shared" si="12"/>
         <v>1.1756235264800474</v>
       </c>
@@ -3017,7 +3074,7 @@
         <f t="shared" si="10"/>
         <v>-0.5237900342525349</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="7">
         <f t="shared" si="13"/>
         <v>1.1756238052740715</v>
       </c>
@@ -3026,11 +3083,11 @@
         <v>1.1758464411679268</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>72</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="7">
         <f t="shared" si="8"/>
         <v>0.72</v>
       </c>
@@ -3038,7 +3095,7 @@
         <f t="shared" si="9"/>
         <v>-0.51106473829618593</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="7">
         <f t="shared" si="12"/>
         <v>1.170449410267659</v>
       </c>
@@ -3046,7 +3103,7 @@
         <f t="shared" si="10"/>
         <v>-0.51106501873268884</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="7">
         <f t="shared" si="13"/>
         <v>1.1704496907041619</v>
       </c>
@@ -3055,11 +3112,11 @@
         <v>1.1706701113152183</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>73</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="7">
         <f t="shared" si="8"/>
         <v>0.73</v>
       </c>
@@ -3067,7 +3124,7 @@
         <f t="shared" si="9"/>
         <v>-0.49853194713747262</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="7">
         <f t="shared" si="12"/>
         <v>1.1654015821411705</v>
       </c>
@@ -3075,7 +3132,7 @@
         <f t="shared" si="10"/>
         <v>-0.49853222918008433</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="7">
         <f t="shared" si="13"/>
         <v>1.1654018641837822</v>
       </c>
@@ -3084,11 +3141,11 @@
         <v>1.1656200915549197</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>74</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="7">
         <f t="shared" si="8"/>
         <v>0.74</v>
       </c>
@@ -3096,7 +3153,7 @@
         <f t="shared" si="9"/>
         <v>-0.48619021405576257</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="7">
         <f t="shared" si="12"/>
         <v>1.1604781256839076</v>
       </c>
@@ -3104,7 +3161,7 @@
         <f t="shared" si="10"/>
         <v>-0.48619049766895683</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="7">
         <f t="shared" si="13"/>
         <v>1.1604784092971019</v>
       </c>
@@ -3113,11 +3170,11 @@
         <v>1.1606944652518645</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>75</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="7">
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
@@ -3125,7 +3182,7 @@
         <f t="shared" si="9"/>
         <v>-0.47403837611010358</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="7">
         <f t="shared" si="12"/>
         <v>1.1556771361334377</v>
       </c>
@@ -3133,7 +3190,7 @@
         <f t="shared" si="10"/>
         <v>-0.47403866125918259</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="7">
         <f t="shared" si="13"/>
         <v>1.1556774212825167</v>
       </c>
@@ -3142,11 +3199,11 @@
         <v>1.1558913274272933</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>76</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="7">
         <f t="shared" si="8"/>
         <v>0.76</v>
       </c>
@@ -3154,7 +3211,7 @@
         <f t="shared" si="9"/>
         <v>-0.46207527522178016</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="7">
         <f t="shared" si="12"/>
         <v>1.1509967203323315</v>
       </c>
@@ -3162,7 +3219,7 @@
         <f t="shared" si="10"/>
         <v>-0.46207556187285903</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="7">
         <f t="shared" si="13"/>
         <v>1.1509970069834103</v>
       </c>
@@ -3171,11 +3228,11 @@
         <v>1.151208784709596</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>77</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="7">
         <f t="shared" si="8"/>
         <v>0.77</v>
       </c>
@@ -3183,7 +3240,7 @@
         <f t="shared" si="9"/>
         <v>-0.45029975805279299</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="7">
         <f t="shared" si="12"/>
         <v>1.1464349966801497</v>
       </c>
@@ -3191,7 +3248,7 @@
         <f t="shared" si="10"/>
         <v>-0.45030004617278441</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="7">
         <f t="shared" si="13"/>
         <v>1.1464352848001411</v>
       </c>
@@ -3200,11 +3257,11 @@
         <v>1.146644955286277</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>78</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="7">
         <f t="shared" si="8"/>
         <v>0.78</v>
       </c>
@@ -3212,7 +3269,7 @@
         <f t="shared" si="9"/>
         <v>-0.43871067588622603</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="7">
         <f t="shared" si="12"/>
         <v>1.1419900950866362</v>
       </c>
@@ -3220,7 +3277,7 @@
         <f t="shared" si="10"/>
         <v>-0.4387109654428254</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="7">
         <f t="shared" si="13"/>
         <v>1.1419903846432355</v>
       </c>
@@ -3229,11 +3286,11 @@
         <v>1.1421979688571251</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>79</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="7">
         <f t="shared" si="8"/>
         <v>0.79</v>
       </c>
@@ -3241,7 +3298,7 @@
         <f t="shared" si="9"/>
         <v>-0.42730688450848886</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="7">
         <f t="shared" si="12"/>
         <v>1.1376601569260967</v>
       </c>
@@ -3249,7 +3306,7 @@
         <f t="shared" si="10"/>
         <v>-0.42730717547015939</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="7">
         <f t="shared" si="13"/>
         <v>1.1376604478877672</v>
       </c>
@@ -3258,11 +3315,11 @@
         <v>1.1378659665885755</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>80</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="7">
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
@@ -3270,7 +3327,7 @@
         <f t="shared" si="9"/>
         <v>-0.41608724409342412</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="7">
         <f t="shared" si="12"/>
         <v>1.1334433349929469</v>
       </c>
@@ -3278,7 +3335,7 @@
         <f t="shared" si="10"/>
         <v>-0.41608753642938223</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="7">
         <f t="shared" si="13"/>
         <v>1.133443627328905</v>
       </c>
@@ -3287,11 +3344,11 @@
         <v>1.1336471010692326</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>81</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="7">
         <f t="shared" si="8"/>
         <v>0.81</v>
       </c>
@@ -3299,7 +3356,7 @@
         <f t="shared" si="9"/>
         <v>-0.40505061908826756</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="7">
         <f t="shared" si="12"/>
         <v>1.1293377934584101</v>
       </c>
@@ -3307,7 +3364,7 @@
         <f t="shared" si="10"/>
         <v>-0.40505091276846816</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="7">
         <f t="shared" si="13"/>
         <v>1.1293380871386107</v>
       </c>
@@ -3316,11 +3373,11 @@
         <v>1.1295395362665506</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>82</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="7">
         <f t="shared" si="8"/>
         <v>0.82000000000000006</v>
       </c>
@@ -3328,7 +3385,7 @@
         <f t="shared" si="9"/>
         <v>-0.39419587810144929</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="7">
         <f t="shared" si="12"/>
         <v>1.1253417078283452</v>
       </c>
@@ -3336,7 +3393,7 @@
         <f t="shared" si="10"/>
         <v>-0.39419617309657207</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="7">
         <f t="shared" si="13"/>
         <v>1.125342002823468</v>
       </c>
@@ -3345,11 +3402,11 @@
         <v>1.1255414474846392</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>83</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="7">
         <f t="shared" si="8"/>
         <v>0.83000000000000007</v>
       </c>
@@ -3357,7 +3414,7 @@
         <f t="shared" si="9"/>
         <v>-0.38352189379222568</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="7">
         <f t="shared" si="12"/>
         <v>1.1214532649021884</v>
       </c>
@@ -3365,7 +3422,7 @@
         <f t="shared" si="10"/>
         <v>-0.3835221900736604</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="7">
         <f t="shared" si="13"/>
         <v>1.1214535611836232</v>
       </c>
@@ -3374,11 +3431,11 @@
         <v>1.1216510213231867</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>84</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="7">
         <f t="shared" si="8"/>
         <v>0.84</v>
       </c>
@@ -3386,7 +3443,7 @@
         <f t="shared" si="9"/>
         <v>-0.37302754276212979</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="7">
         <f t="shared" si="12"/>
         <v>1.1176706627329891</v>
       </c>
@@ -3394,7 +3451,7 @@
         <f t="shared" si="10"/>
         <v>-0.37302784030196279</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="7">
         <f t="shared" si="13"/>
         <v>1.1176709602728221</v>
       </c>
@@ -3403,11 +3460,11 @@
         <v>1.1178664556374749</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>85</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="7">
         <f t="shared" si="8"/>
         <v>0.85</v>
       </c>
@@ -3415,7 +3472,7 @@
         <f t="shared" si="9"/>
         <v>-0.36271170544822928</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="7">
         <f t="shared" si="12"/>
         <v>1.113992110588522</v>
       </c>
@@ -3423,7 +3480,7 @@
         <f t="shared" si="10"/>
         <v>-0.36271200421922989</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="7">
         <f t="shared" si="13"/>
         <v>1.1139924093595226</v>
       </c>
@@ -3432,11 +3489,11 @@
         <v>1.1141859594994721</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>86</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="7">
         <f t="shared" si="8"/>
         <v>0.86</v>
       </c>
@@ -3444,7 +3501,7 @@
         <f t="shared" si="9"/>
         <v>-0.35257326601818151</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="7">
         <f t="shared" si="12"/>
         <v>1.1104158289134585</v>
       </c>
@@ -3452,7 +3509,7 @@
         <f t="shared" si="10"/>
         <v>-0.35257356599378809</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="7">
         <f t="shared" si="13"/>
         <v>1.110416128889065</v>
       </c>
@@ -3461,11 +3518,11 @@
         <v>1.1106077531599845</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>87</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="7">
         <f t="shared" si="8"/>
         <v>0.87</v>
       </c>
@@ -3473,7 +3530,7 @@
         <f t="shared" si="9"/>
         <v>-0.34261111226707253</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="7">
         <f t="shared" si="12"/>
         <v>1.1069400492925776</v>
       </c>
@@ -3481,7 +3538,7 @@
         <f t="shared" si="10"/>
         <v>-0.34261141342137935</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="7">
         <f t="shared" si="13"/>
         <v>1.1069403504468844</v>
       </c>
@@ -3490,11 +3547,11 @@
         <v>1.1071300680118497</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>88</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="7">
         <f t="shared" si="8"/>
         <v>0.88</v>
       </c>
@@ -3502,7 +3559,7 @@
         <f t="shared" si="9"/>
         <v>-0.33282413551603085</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="7">
         <f t="shared" si="12"/>
         <v>1.1035630144150002</v>
       </c>
@@ -3510,7 +3567,7 @@
         <f t="shared" si="10"/>
         <v>-0.33282443782377502</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="7">
         <f t="shared" si="13"/>
         <v>1.1035633167227443</v>
       </c>
@@ -3519,11 +3576,11 @@
         <v>1.1037511465541479</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>89</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="7">
         <f t="shared" si="8"/>
         <v>0.89</v>
       </c>
@@ -3531,7 +3588,7 @@
         <f t="shared" si="9"/>
         <v>-0.32321123051260425</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="7">
         <f t="shared" si="12"/>
         <v>1.1002829780394281</v>
       </c>
@@ -3539,7 +3596,7 @@
         <f t="shared" si="10"/>
         <v>-0.32321153394915236</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="7">
         <f t="shared" si="13"/>
         <v>1.1002832814759762</v>
       </c>
@@ -3548,11 +3605,11 @@
         <v>1.1004692423574272</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>90</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="7">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
@@ -3560,7 +3617,7 @@
         <f t="shared" si="9"/>
         <v>-0.31377129533288739</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="7">
         <f t="shared" si="12"/>
         <v>1.0970982049603708</v>
       </c>
@@ -3568,7 +3625,7 @@
         <f t="shared" si="10"/>
         <v>-0.31377159987422287</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="7">
         <f t="shared" si="13"/>
         <v>1.0970985095017063</v>
       </c>
@@ -3577,11 +3634,11 @@
         <v>1.0972826200299073</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>91</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="7">
         <f t="shared" si="8"/>
         <v>0.91</v>
       </c>
@@ -3589,7 +3646,7 @@
         <f t="shared" si="9"/>
         <v>-0.30450323128539125</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="7">
         <f t="shared" si="12"/>
         <v>1.0940069709753417</v>
       </c>
@@ -3597,7 +3654,7 @@
         <f t="shared" si="10"/>
         <v>-0.30450353690810195</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="7">
         <f t="shared" si="13"/>
         <v>1.0940072765980524</v>
       </c>
@@ -3606,11 +3663,11 @@
         <v>1.0941895551846592</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>92</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="7">
         <f t="shared" si="8"/>
         <v>0.92</v>
       </c>
@@ -3618,7 +3675,7 @@
         <f t="shared" si="9"/>
         <v>-0.29540594281664156</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="7">
         <f t="shared" si="12"/>
         <v>1.0910075628530076</v>
       </c>
@@ -3626,7 +3683,7 @@
         <f t="shared" si="10"/>
         <v>-0.29540624949790684</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="7">
         <f t="shared" si="13"/>
         <v>1.0910078695342729</v>
       </c>
@@ -3635,11 +3692,11 @@
         <v>1.0911883344077369</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>93</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="7">
         <f t="shared" si="8"/>
         <v>0.93</v>
       </c>
@@ -3647,7 +3704,7 @@
         <f t="shared" si="9"/>
         <v>-0.28647833741849626</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="7">
         <f t="shared" si="12"/>
         <v>1.0880982783022735</v>
       </c>
@@ -3655,7 +3712,7 @@
         <f t="shared" si="10"/>
         <v>-0.28647864513607457</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="7">
         <f t="shared" si="13"/>
         <v>1.0880985860198518</v>
       </c>
@@ -3664,11 +3721,11 @@
         <v>1.0882772552272422</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>94</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="7">
         <f t="shared" si="8"/>
         <v>0.94000000000000006</v>
       </c>
@@ -3676,7 +3733,7 @@
         <f t="shared" si="9"/>
         <v>-0.27771932553717071</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="7">
         <f t="shared" si="12"/>
         <v>1.085277425942285</v>
       </c>
@@ -3684,7 +3741,7 @@
         <f t="shared" si="10"/>
         <v>-0.27771963426938762</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="7">
         <f t="shared" si="13"/>
         <v>1.0852777346745019</v>
       </c>
@@ -3693,11 +3750,11 @@
         <v>1.0854546260833109</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>95</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="7">
         <f t="shared" si="8"/>
         <v>0.95000000000000007</v>
       </c>
@@ -3705,7 +3762,7 @@
         <f t="shared" si="9"/>
         <v>-0.26912782048395945</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="7">
         <f t="shared" si="12"/>
         <v>1.0825433252733332</v>
       </c>
@@ -3713,7 +3770,7 @@
         <f t="shared" si="10"/>
         <v>-0.26912813020969584</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="7">
         <f t="shared" si="13"/>
         <v>1.0825436349990696</v>
       </c>
@@ -3722,11 +3779,11 @@
         <v>1.0827187662989981</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>96</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="7">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
@@ -3734,7 +3791,7 @@
         <f t="shared" si="9"/>
         <v>-0.26070273834764435</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="7">
         <f t="shared" si="12"/>
         <v>1.0798943066486426</v>
       </c>
@@ -3742,7 +3799,7 @@
         <f t="shared" si="10"/>
         <v>-0.26070304904632424</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="7">
         <f t="shared" si="13"/>
         <v>1.0798946173473225</v>
       </c>
@@ -3751,11 +3808,11 @@
         <v>1.0800680060520509</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>97</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="7">
         <f t="shared" si="8"/>
         <v>0.97</v>
       </c>
@@ -3763,7 +3820,7 @@
         <f t="shared" si="9"/>
         <v>-0.25244299790857727</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="7">
         <f t="shared" si="12"/>
         <v>1.0773287112470273</v>
       </c>
@@ -3771,7 +3828,7 @@
         <f t="shared" si="10"/>
         <v>-0.25244330956015648</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="7">
         <f t="shared" si="13"/>
         <v>1.0773290228986065</v>
       </c>
@@ -3780,11 +3837,11 @@
         <v>1.0775006863475449</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>98</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="7">
         <f t="shared" si="8"/>
         <v>0.98</v>
       </c>
@@ -3792,7 +3849,7 @@
         <f t="shared" si="9"/>
         <v>-0.24434752055442788</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="7">
         <f t="shared" si="12"/>
         <v>1.0748448910463984</v>
       </c>
@@ -3800,7 +3857,7 @@
         <f t="shared" si="10"/>
         <v>-0.24434783313938202</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="7">
         <f t="shared" si="13"/>
         <v>1.0748452036313525</v>
       </c>
@@ -3809,11 +3866,11 @@
         <v>1.0750151589913755</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>99</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="7">
         <f t="shared" si="8"/>
         <v>0.99</v>
       </c>
@@ -3821,7 +3878,7 @@
         <f t="shared" si="9"/>
         <v>-0.23641523019758381</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="7">
         <f t="shared" si="12"/>
         <v>1.0724412087981043</v>
       </c>
@@ -3829,7 +3886,7 @@
         <f t="shared" si="10"/>
         <v>-0.23641554369689721</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="7">
         <f t="shared" si="13"/>
         <v>1.0724415222974177</v>
       </c>
@@ -3838,11 +3895,11 @@
         <v>1.0726097865645807</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>100</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="7">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3850,7 +3907,7 @@
         <f t="shared" si="9"/>
         <v>-0.22864505319419415</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="7">
         <f t="shared" si="12"/>
         <v>1.0701160380020907</v>
       </c>
@@ -3858,7 +3915,7 @@
         <f t="shared" si="10"/>
         <v>-0.2286453675893485</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="7">
         <f t="shared" si="13"/>
         <v>1.070116352397245</v>
       </c>
@@ -3867,29 +3924,29 @@
         <v>1.0702829423984843</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+      <c r="B111" s="7"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="3">
-        <f t="shared" ref="C111:F111" si="14">SUM(D10:D60)</f>
+      <c r="D111" s="12">
+        <f t="shared" ref="D111:F111" si="14">SUM(D10:D60)</f>
         <v>82.159233938201766</v>
       </c>
       <c r="E111" s="3"/>
-      <c r="F111" s="3">
+      <c r="F111" s="12">
         <f t="shared" si="14"/>
         <v>82.159240216769874</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G111" s="10">
         <f>SUM(G10:G60)</f>
         <v>82.176522595981282</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="11">
         <f xml:space="preserve"> ABS(Таблица1[[#Totals],[Точное значение]] - Таблица1[[#Totals],[Адамс 3]])</f>
         <v>1.7288657779516825E-2</v>
       </c>
@@ -3899,11 +3956,11 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113" s="11">
         <f xml:space="preserve"> ABS(Таблица1[[#Totals],[Точное значение]] - Таблица1[[#Totals],[Адамс 4]])</f>
         <v>1.7282379211408738E-2</v>
       </c>
@@ -3913,11 +3970,11 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
+    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="5" t="b">
+      <c r="B114" s="11" t="b">
         <f xml:space="preserve"> IF(B112 &gt; B113, TRUE, FALSE)</f>
         <v>1</v>
       </c>
@@ -3927,7 +3984,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>

--- a/Вычислительная математика/Курсовой проект/Решение задачи.xlsx
+++ b/Вычислительная математика/Курсовой проект/Решение задачи.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,8 +115,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -153,18 +159,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -179,6 +202,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -237,6 +267,40 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -344,78 +408,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thick">
@@ -463,6 +455,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -477,6 +482,31 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,15 +526,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
+      <xdr:colOff>1038226</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -513,8 +543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161926" y="247651"/>
-          <a:ext cx="6191249" cy="571500"/>
+          <a:off x="1038226" y="333376"/>
+          <a:ext cx="5524499" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -621,21 +651,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A9:G111" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A9:G111" totalsRowCount="1" headerRowDxfId="14" dataDxfId="12" totalsRowDxfId="11" headerRowBorderDxfId="13">
   <autoFilter ref="A9:G110"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Итерация" dataDxfId="14" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="Аргумент" dataDxfId="11" totalsRowDxfId="5">
+    <tableColumn id="1" name="Итерация" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="Аргумент" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula xml:space="preserve"> A10 * $B$7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Функция ур - 3" dataDxfId="13" totalsRowDxfId="4">
+    <tableColumn id="3" name="Функция ур - 3" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula xml:space="preserve"> SIN(B10) - D10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Адамс 3" totalsRowFunction="custom" totalsRowDxfId="2">
+    <tableColumn id="4" name="Адамс 3" totalsRowFunction="custom" totalsRowDxfId="4">
       <calculatedColumnFormula xml:space="preserve"> D9 + ($B$7/12) * (23 * C9 - 16 * C8 + 5 * C7)</calculatedColumnFormula>
       <totalsRowFormula>SUM(D10:D60)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Функция ур. 4" dataDxfId="12" totalsRowDxfId="3">
+    <tableColumn id="5" name="Функция ур. 4" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula xml:space="preserve"> SIN(B10) - F10</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Адамс 4" totalsRowFunction="custom" totalsRowDxfId="1">
@@ -906,7 +936,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -917,13 +947,13 @@
   <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
@@ -941,7 +971,7 @@
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
@@ -954,7 +984,7 @@
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>0.01</v>
       </c>
       <c r="C7" s="3"/>
@@ -973,1503 +1003,1503 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>0</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f xml:space="preserve"> A10 * $B$7</f>
         <v>0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f xml:space="preserve"> SIN(B10) - D10</f>
         <v>-2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>$B$6</f>
         <v>2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f xml:space="preserve"> SIN(B10) - F10</f>
         <v>-2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f>D10</f>
         <v>2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f xml:space="preserve"> (SIN(B10) - COS(B10) + EXP(-B10) * (1 + 2 * $B$6)) / 2</f>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f t="shared" ref="B11:B74" si="0" xml:space="preserve"> A11 * $B$7</f>
         <v>0.01</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f t="shared" ref="C11:C74" si="1" xml:space="preserve"> SIN(B11) - D11</f>
         <v>-1.9700001666658333</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f xml:space="preserve"> D10 + $B$7 * (SIN(B10) - D10)</f>
         <v>1.98</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f t="shared" ref="E11:E74" si="2" xml:space="preserve"> SIN(B11) - F11</f>
         <v>-1.9700001666658333</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" ref="F11:F13" si="3">D11</f>
         <v>1.98</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f xml:space="preserve"> (SIN(B11) - COS(B11) + EXP(-B11) * (1 + 2 * $B$6)) / 2</f>
         <v>1.9801495008316712</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <f t="shared" si="1"/>
         <v>-1.9403013316400084</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f t="shared" ref="D12:D13" si="4" xml:space="preserve"> D11 + $B$7 * (SIN(B11) - D11)</f>
         <v>1.9602999983333416</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <f t="shared" si="2"/>
         <v>-1.9403013316400084</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="3"/>
         <v>1.9602999983333416</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <f t="shared" ref="G12:G75" si="5" xml:space="preserve"> (SIN(B12) - COS(B12) + EXP(-B12) * (1 + 2 * $B$6)) / 2</f>
         <v>1.9605960132802658</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
         <v>3</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="13">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="12">
         <f t="shared" si="1"/>
         <v>-1.9109014848144459</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="13">
         <f t="shared" si="4"/>
         <v>1.9408969850169415</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="12">
         <f xml:space="preserve"> SIN(B13) - F13</f>
         <v>-1.9109014848144459</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="13">
         <f t="shared" si="3"/>
         <v>1.9408969850169415</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="12">
         <f t="shared" si="5"/>
         <v>1.9413365670980243</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="14">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f t="shared" si="1"/>
         <v>-1.8819443894321228</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="14">
         <f xml:space="preserve"> D13 + ($B$7/12) * (23 * C13 - 16 * C12 + 5 * C11)</f>
         <v>1.921933723618757</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <f t="shared" si="2"/>
         <v>-1.8819443969700282</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="14">
         <f>F13+$B$7*(55*E13 - 59*E12+37*E11-9*E10)/24</f>
         <v>1.9219337311566624</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <f t="shared" si="5"/>
         <v>1.922368211643636</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <f t="shared" si="1"/>
         <v>-1.8532780511329889</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="14">
         <f t="shared" ref="D15:D78" si="6" xml:space="preserve"> D14 + ($B$7/12) * (23 * C14 - 16 * C13 + 5 * C12)</f>
         <v>1.9032572204036673</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <f t="shared" si="2"/>
         <v>-1.8532775193859894</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="14">
         <f t="shared" ref="F15:F78" si="7">F14+$B$7*(55*E14 - 59*E13+37*E12-9*E11)/24</f>
         <v>1.9032566886566677</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <f t="shared" si="5"/>
         <v>1.9036880156896412</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>6</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <f t="shared" si="1"/>
         <v>-1.8249025536165417</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="14">
         <f t="shared" si="6"/>
         <v>1.8848665600959864</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <f t="shared" si="2"/>
         <v>-1.824902604219568</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="14">
         <f t="shared" si="7"/>
         <v>1.8848666106990126</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <f t="shared" si="5"/>
         <v>1.8852930672327419</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <f t="shared" si="1"/>
         <v>-1.796815352873276</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="14">
         <f t="shared" si="6"/>
         <v>1.8667582002108087</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <f t="shared" si="2"/>
         <v>-1.7968153888144534</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="14">
         <f t="shared" si="7"/>
         <v>1.8667582361519861</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <f t="shared" si="5"/>
         <v>1.8671804733069974</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <f t="shared" si="1"/>
         <v>-1.7690145874800647</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="14">
         <f t="shared" si="6"/>
         <v>1.8489292814492373</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <f t="shared" si="2"/>
         <v>-1.7690146416076502</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="14">
         <f t="shared" si="7"/>
         <v>1.8489293355768228</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <f t="shared" si="5"/>
         <v>1.849347359799866</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>9</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <f t="shared" si="1"/>
         <v>-1.7414983967227664</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="14">
         <f t="shared" si="6"/>
         <v>1.8313769459207774</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <f t="shared" si="2"/>
         <v>-1.7414984546996377</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="14">
         <f t="shared" si="7"/>
         <v>1.8313770038976487</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <f t="shared" si="5"/>
         <v>1.8317908712710791</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>10</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="14">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <f t="shared" si="1"/>
         <v>-1.7142649405328583</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="14">
         <f t="shared" si="6"/>
         <v>1.8140983571796865</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <f t="shared" si="2"/>
         <v>-1.7142650051250756</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="14">
         <f t="shared" si="7"/>
         <v>1.8140984217719038</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <f t="shared" si="5"/>
         <v>1.8145081707742998</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>11</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="14">
         <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <f t="shared" si="1"/>
         <v>-1.687312396157435</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="14">
         <f t="shared" si="6"/>
         <v>1.7970906969946099</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <f t="shared" si="2"/>
         <v>-1.6873124668952484</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="14">
         <f t="shared" si="7"/>
         <v>1.7970907677324233</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <f t="shared" si="5"/>
         <v>1.7974964396815596</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>12</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="14">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <f t="shared" si="1"/>
         <v>-1.6606389580000995</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="14">
         <f t="shared" si="6"/>
         <v>1.7803511652890189</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <f t="shared" si="2"/>
         <v>-1.6606390348492217</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="14">
         <f t="shared" si="7"/>
         <v>1.7803512421381411</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <f t="shared" si="5"/>
         <v>1.7807528775104202</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>13</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="14">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <f t="shared" si="1"/>
         <v>-1.6342428373375344</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="14">
         <f t="shared" si="6"/>
         <v>1.7638769799572291</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <f t="shared" si="2"/>
         <v>-1.6342429201571052</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="14">
         <f t="shared" si="7"/>
         <v>1.7638770627768001</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <f t="shared" si="5"/>
         <v>1.7642747017538567</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>14</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="14">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <f t="shared" si="1"/>
         <v>-1.6081222620533686</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="14">
         <f t="shared" si="6"/>
         <v>1.7476653766976051</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <f t="shared" si="2"/>
         <v>-1.6081223507235907</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="14">
         <f t="shared" si="7"/>
         <v>1.7476654653678272</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <f t="shared" si="5"/>
         <v>1.7480591477128145</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>15</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="14">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <f t="shared" si="1"/>
         <v>-1.5822754763741498</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="14">
         <f t="shared" si="6"/>
         <v>1.7317136088477489</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <f t="shared" si="2"/>
         <v>-1.5822755707742728</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="14">
         <f t="shared" si="7"/>
         <v>1.731713703247872</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <f t="shared" si="5"/>
         <v>1.7321034683314229</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>16</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="14">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <f t="shared" si="1"/>
         <v>-1.556700740608137</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="14">
         <f t="shared" si="6"/>
         <v>1.716018947222383</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <f t="shared" si="2"/>
         <v>-1.5567008406202665</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="14">
         <f t="shared" si="7"/>
         <v>1.7160190472345125</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <f t="shared" si="5"/>
         <v>1.716404934034838</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>17</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="14">
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <f t="shared" si="1"/>
         <v>-1.5313963308868308</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="14">
         <f t="shared" si="6"/>
         <v>1.7005786799538267</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f t="shared" si="2"/>
         <v>-1.5313964363951031</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="14">
         <f t="shared" si="7"/>
         <v>1.7005787854620993</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <f t="shared" si="5"/>
         <v>1.7009608325696768</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>18</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="14">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <f t="shared" si="1"/>
         <v>-1.5063605389092212</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="14">
         <f t="shared" si="6"/>
         <v>1.6853901123350454</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f t="shared" si="2"/>
         <v>-1.5063606497999122</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="14">
         <f t="shared" si="7"/>
         <v>1.6853902232257365</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <f t="shared" si="5"/>
         <v>1.6857684688470314</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>19</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="14">
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <f t="shared" si="1"/>
         <v>-1.4815916716887418</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="14">
         <f t="shared" si="6"/>
         <v>1.6704505666652425</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <f t="shared" si="2"/>
         <v>-1.4815917878502085</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="14">
         <f t="shared" si="7"/>
         <v>1.6704506828267092</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <f t="shared" si="5"/>
         <v>1.6708251647880208</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>20</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="14">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <f t="shared" si="1"/>
         <v>-1.4570880513029083</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="14">
         <f t="shared" si="6"/>
         <v>1.6557573820979694</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <f t="shared" si="2"/>
         <v>-1.4570881726255633</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="14">
         <f t="shared" si="7"/>
         <v>1.6557575034206244</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <f t="shared" si="5"/>
         <v>1.6561282591718645</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>21</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="14">
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <f t="shared" si="1"/>
         <v>-1.4328480146456255</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="14">
         <f t="shared" si="6"/>
         <v>1.6413079144917251</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <f t="shared" si="2"/>
         <v>-1.4328481410219063</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="14">
         <f t="shared" si="7"/>
         <v>1.6413080408680059</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <f t="shared" si="5"/>
         <v>1.6416751074864433</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>22</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="14">
         <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <f t="shared" si="1"/>
         <v>-1.4088699131821503</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="14">
         <f t="shared" si="6"/>
         <v>1.6270995362630196</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <f t="shared" si="2"/>
         <v>-1.4088700445064886</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="14">
         <f t="shared" si="7"/>
         <v>1.6270996675873579</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <f t="shared" si="5"/>
         <v>1.6274630817813283</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>23</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="14">
         <f t="shared" si="0"/>
         <v>0.23</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <f t="shared" si="1"/>
         <v>-1.3851521127066861</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="14">
         <f t="shared" si="6"/>
         <v>1.6131296362418746</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <f t="shared" si="2"/>
         <v>-1.3851522488754786</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="14">
         <f t="shared" si="7"/>
         <v>1.613129772410667</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <f t="shared" si="5"/>
         <v>1.6134895705232417</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>24</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="14">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <f t="shared" si="1"/>
         <v>-1.3616929931026003</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="14">
         <f t="shared" si="6"/>
         <v>1.599395619529735</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <f t="shared" si="2"/>
         <v>-1.3616931340141787</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="14">
         <f t="shared" si="7"/>
         <v>1.5993957604413134</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <f t="shared" si="5"/>
         <v>1.599751978453936</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>25</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="14">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <f t="shared" si="1"/>
         <v>-1.3384909481052423</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="14">
         <f t="shared" si="6"/>
         <v>1.5858949073597652</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <f t="shared" si="2"/>
         <v>-1.3384910936598449</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="14">
         <f t="shared" si="7"/>
         <v>1.5858950529143678</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <f t="shared" si="5"/>
         <v>1.5862477264504513</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>26</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="14">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <f t="shared" si="1"/>
         <v>-1.3155443850673498</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="14">
         <f t="shared" si="6"/>
         <v>1.5726249369595049</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <f t="shared" si="2"/>
         <v>-1.3155445351670922</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="14">
         <f t="shared" si="7"/>
         <v>1.5726250870592473</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <f t="shared" si="5"/>
         <v>1.5729742513877367</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>27</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="14">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <f t="shared" si="1"/>
         <v>-1.2928517247270253</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="14">
         <f t="shared" si="6"/>
         <v>1.5595831614158564</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <f t="shared" si="2"/>
         <v>-1.2928518792758725</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="14">
         <f t="shared" si="7"/>
         <v>1.5595833159647037</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <f t="shared" si="5"/>
         <v>1.5599290060036033</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>28</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="14">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <f t="shared" si="1"/>
         <v>-1.2704114009782677</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="14">
         <f t="shared" si="6"/>
         <v>1.5467670495423813</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <f t="shared" si="2"/>
         <v>-1.2704115598820063</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="14">
         <f t="shared" si="7"/>
         <v>1.5467672084461199</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <f t="shared" si="5"/>
         <v>1.547109458765985</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>29</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="14">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <f t="shared" si="1"/>
         <v>-1.2482218606440418</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="14">
         <f t="shared" si="6"/>
         <v>1.5341740857488775</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <f t="shared" si="2"/>
         <v>-1.2482220238102522</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="14">
         <f t="shared" si="7"/>
         <v>1.5341742489150876</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <f t="shared" si="5"/>
         <v>1.5345130937424822</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>30</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="14">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <f t="shared" si="1"/>
         <v>-1.2262815632518747</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="14">
         <f t="shared" si="6"/>
         <v>1.5218017699132143</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <f t="shared" si="2"/>
         <v>-1.2262817305899025</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="14">
         <f t="shared" si="7"/>
         <v>1.5218019372512421</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="4">
         <f t="shared" si="5"/>
         <v>1.5221374104721614</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>31</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="14">
         <f t="shared" si="0"/>
         <v>0.31</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <f t="shared" si="1"/>
         <v>-1.2045889808119543</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="14">
         <f t="shared" si="6"/>
         <v>1.5096476172553979</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <f t="shared" si="2"/>
         <v>-1.2045891522328855</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="14">
         <f t="shared" si="7"/>
         <v>1.5096477886763291</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <f t="shared" si="5"/>
         <v>1.5099799238395883</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>32</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="14">
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <f t="shared" si="1"/>
         <v>-1.1831425975977257</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="14">
         <f t="shared" si="6"/>
         <v>1.4977091582138435</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <f t="shared" si="2"/>
         <v>-1.1831427730143589</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="14">
         <f t="shared" si="7"/>
         <v>1.4977093336304768</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="4">
         <f t="shared" si="5"/>
         <v>1.4980381639510658</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>33</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="14">
         <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <f t="shared" si="1"/>
         <v>-1.1619409099289622</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="14">
         <f t="shared" si="6"/>
         <v>1.4859839383238305</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <f t="shared" si="2"/>
         <v>-1.161941089255782</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="14">
         <f t="shared" si="7"/>
         <v>1.4859841176506503</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <f t="shared" si="5"/>
         <v>1.4863096760130561</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>34</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="14">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <f t="shared" si="1"/>
         <v>-1.1409824259572976</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="14">
         <f t="shared" si="6"/>
         <v>1.474469518098112</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <f t="shared" si="2"/>
         <v>-1.1409826091104491</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="14">
         <f t="shared" si="7"/>
         <v>1.4744697012512635</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="4">
         <f t="shared" si="5"/>
         <v>1.4747920202127582</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>35</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="14">
         <f t="shared" si="0"/>
         <v>0.35000000000000003</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <f t="shared" si="1"/>
         <v>-1.120265665454208</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="14">
         <f t="shared" si="6"/>
         <v>1.4631634729096594</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <f t="shared" si="2"/>
         <v>-1.120265852351471</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="14">
         <f t="shared" si="7"/>
         <v>1.4631636598069224</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <f t="shared" si="5"/>
         <v>1.4634827716008199</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>36</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="14">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <f t="shared" si="1"/>
         <v>-1.0997891596014238</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="14">
         <f t="shared" si="6"/>
         <v>1.4520633928765136</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <f t="shared" si="2"/>
         <v>-1.0997893501621872</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="14">
         <f t="shared" si="7"/>
         <v>1.452063583437277</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="4">
         <f t="shared" si="5"/>
         <v>1.4523795199761551</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>37</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="14">
         <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <f t="shared" si="1"/>
         <v>-1.0795514507837582</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="14">
         <f t="shared" si="6"/>
         <v>1.4411668827487203</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <f t="shared" si="2"/>
         <v>-1.079551644928995</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="14">
         <f t="shared" si="7"/>
         <v>1.4411670768939571</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="4">
         <f t="shared" si="5"/>
         <v>1.4414798697728504</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>38</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="14">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <f t="shared" si="1"/>
         <v>-1.0595510923843421</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="14">
         <f t="shared" si="6"/>
         <v>1.4304715617973247</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <f t="shared" si="2"/>
         <v>-1.0595512900365844</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="14">
         <f t="shared" si="7"/>
         <v>1.4304717594495671</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="4">
         <f t="shared" si="5"/>
         <v>1.4307814399491257</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>39</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="14">
         <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <f t="shared" si="1"/>
         <v>-1.0397866485822409</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="14">
         <f t="shared" si="6"/>
         <v>1.4199750637054023</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <f t="shared" si="2"/>
         <v>-1.039786849665556</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="14">
         <f t="shared" si="7"/>
         <v>1.4199752647887174</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <f t="shared" si="5"/>
         <v>1.4202818638783359</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>40</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="14">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <f t="shared" si="1"/>
         <v>-1.0202566941524509</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="14">
         <f t="shared" si="6"/>
         <v>1.4096750364611015</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <f t="shared" si="2"/>
         <v>-1.0202568985924167</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="14">
         <f t="shared" si="7"/>
         <v>1.4096752409010673</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="4">
         <f t="shared" si="5"/>
         <v>1.4099787892419813</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>41</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="14">
         <f t="shared" si="0"/>
         <v>0.41000000000000003</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <f t="shared" si="1"/>
         <v>-1.0009598142682516</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="14">
         <f t="shared" si="6"/>
         <v>1.3995691422526746</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <f t="shared" si="2"/>
         <v>-1.0009600219919328</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="14">
         <f t="shared" si="7"/>
         <v>1.3995693499763557</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="4">
         <f t="shared" si="5"/>
         <v>1.3998698779247074</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>42</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="14">
         <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <f t="shared" si="1"/>
         <v>-0.98189460430590292</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="14">
         <f t="shared" si="6"/>
         <v>1.3896550573654731</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <f t="shared" si="2"/>
         <v>-0.9818948152418272</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="14">
         <f t="shared" si="7"/>
         <v>1.3896552683013974</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="4">
         <f t="shared" si="5"/>
         <v>1.3899528059112729</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>43</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="14">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <f t="shared" si="1"/>
         <v>-0.963059669651674</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="14">
         <f t="shared" si="6"/>
         <v>1.3799304720808847</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <f t="shared" si="2"/>
         <v>-0.96305988372980922</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="14">
         <f t="shared" si="7"/>
         <v>1.3799306861590199</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="4">
         <f t="shared" si="5"/>
         <v>1.3802252631854544</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>44</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="14">
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <f t="shared" si="1"/>
         <v>-0.94445362551118905</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="14">
         <f t="shared" si="6"/>
         <v>1.3703930905771886</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <f t="shared" si="2"/>
         <v>-0.94445384266291965</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="14">
         <f t="shared" si="7"/>
         <v>1.3703933077289192</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="4">
         <f t="shared" si="5"/>
         <v>1.3706849536308716</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>45</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="14">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <f t="shared" si="1"/>
         <v>-0.92607509672107513</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="14">
         <f t="shared" si="6"/>
         <v>1.3610406308323053</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <f t="shared" si="2"/>
         <v>-0.92607531687917977</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="14">
         <f t="shared" si="7"/>
         <v>1.3610408509904099</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="4">
         <f t="shared" si="5"/>
         <v>1.3613295949337099</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>46</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="14">
         <f t="shared" si="0"/>
         <v>0.46</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <f t="shared" si="1"/>
         <v>-0.90792271756289877</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="14">
         <f t="shared" si="6"/>
         <v>1.3518708245284186</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <f t="shared" si="2"/>
         <v>-0.90792294066152812</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="14">
         <f t="shared" si="7"/>
         <v>1.3518710476270479</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="4">
         <f t="shared" si="5"/>
         <v>1.3521569184873121</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>47</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="14">
         <f t="shared" si="0"/>
         <v>0.47000000000000003</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <f t="shared" si="1"/>
         <v>-0.88999513157937904</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="14">
         <f t="shared" si="6"/>
         <v>1.3428814169584473</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <f t="shared" si="2"/>
         <v>-0.88999535755403292</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="14">
         <f t="shared" si="7"/>
         <v>1.3428816429331012</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="4">
         <f t="shared" si="5"/>
         <v>1.3431646692986217</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>48</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="14">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <f t="shared" si="1"/>
         <v>-0.87229099139286048</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="14">
         <f t="shared" si="6"/>
         <v>1.3340701669343433</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <f t="shared" si="2"/>
         <v>-0.87229122018036631</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="14">
         <f t="shared" si="7"/>
         <v>1.3340703957218492</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="4">
         <f t="shared" si="5"/>
         <v>1.3343506058964516</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>49</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="14">
         <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <f t="shared" si="1"/>
         <v>-0.85480895852603522</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="14">
         <f t="shared" si="6"/>
         <v>1.3254348466971932</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="4">
         <f t="shared" si="2"/>
         <v>-0.85480919006452605</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="14">
         <f t="shared" si="7"/>
         <v>1.3254350782356841</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="4">
         <f t="shared" si="5"/>
         <v>1.3257125002415586</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+    <row r="60" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
         <v>50</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="16">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="12">
         <f t="shared" si="1"/>
         <v>-0.83754770322489858</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="16">
         <f t="shared" si="6"/>
         <v>1.3169732418291016</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="12">
         <f t="shared" si="2"/>
         <v>-0.83754793745379241</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="16">
         <f t="shared" si="7"/>
         <v>1.3169734760579954</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="12">
         <f t="shared" si="5"/>
         <v>1.3172481376384986</v>
       </c>
@@ -2478,7 +2508,7 @@
       <c r="A61" s="3">
         <v>51</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
@@ -2486,7 +2516,7 @@
         <f t="shared" si="1"/>
         <v>-0.82050590428392711</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <f t="shared" si="6"/>
         <v>1.3086831511668346</v>
       </c>
@@ -2494,7 +2524,7 @@
         <f t="shared" si="2"/>
         <v>-0.82050614114390497</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="6">
         <f t="shared" si="7"/>
         <v>1.3086833880268125</v>
       </c>
@@ -2507,7 +2537,7 @@
       <c r="A62" s="3">
         <v>52</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
@@ -2515,7 +2545,7 @@
         <f t="shared" si="1"/>
         <v>-0.80368224887346285</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="6">
         <f t="shared" si="6"/>
         <v>1.3005623867171996</v>
       </c>
@@ -2523,7 +2553,7 @@
         <f t="shared" si="2"/>
         <v>-0.80368248830644851</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="6">
         <f t="shared" si="7"/>
         <v>1.3005626261501853</v>
       </c>
@@ -2536,7 +2566,7 @@
       <c r="A63" s="3">
         <v>53</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <f t="shared" si="0"/>
         <v>0.53</v>
       </c>
@@ -2544,7 +2574,7 @@
         <f t="shared" si="1"/>
         <v>-0.78707543236929334</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="6">
         <f t="shared" si="6"/>
         <v>1.2926087735741403</v>
       </c>
@@ -2552,7 +2582,7 @@
         <f t="shared" si="2"/>
         <v>-0.78707567431843251</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="6">
         <f t="shared" si="7"/>
         <v>1.2926090155232794</v>
       </c>
@@ -2565,7 +2595,7 @@
       <c r="A64" s="3">
         <v>54</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
@@ -2573,7 +2603,7 @@
         <f t="shared" si="1"/>
         <v>-0.77068415818441216</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="6">
         <f t="shared" si="6"/>
         <v>1.2848201498375253</v>
       </c>
@@ -2581,7 +2611,7 @@
         <f t="shared" si="2"/>
         <v>-0.77068440259405224</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="6">
         <f t="shared" si="7"/>
         <v>1.2848203942471654</v>
       </c>
@@ -2594,7 +2624,7 @@
       <c r="A65" s="3">
         <v>55</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
@@ -2602,7 +2632,7 @@
         <f t="shared" si="1"/>
         <v>-0.7545071376029493</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="6">
         <f t="shared" si="6"/>
         <v>1.2771943665336085</v>
       </c>
@@ -2610,7 +2640,7 @@
         <f t="shared" si="2"/>
         <v>-0.7545073844186192</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="6">
         <f t="shared" si="7"/>
         <v>1.2771946133492784</v>
       </c>
@@ -2623,7 +2653,7 @@
       <c r="A66" s="3">
         <v>56</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
@@ -2631,7 +2661,7 @@
         <f t="shared" si="1"/>
         <v>-0.73854308961625525</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <f t="shared" si="6"/>
         <v>1.2697292875371387</v>
       </c>
@@ -2639,7 +2669,7 @@
         <f t="shared" si="2"/>
         <v>-0.7385433387846454</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="6">
         <f t="shared" si="7"/>
         <v>1.2697295367055288</v>
       </c>
@@ -2652,7 +2682,7 @@
       <c r="A67" s="3">
         <v>57</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
@@ -2660,7 +2690,7 @@
         <f t="shared" si="1"/>
         <v>-0.72279074076112881</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="6">
         <f t="shared" si="6"/>
         <v>1.2624227894950981</v>
       </c>
@@ -2668,7 +2698,7 @@
         <f t="shared" si="2"/>
         <v>-0.72279099223007159</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="6">
         <f t="shared" si="7"/>
         <v>1.2624230409640409</v>
       </c>
@@ -2681,7 +2711,7 @@
       <c r="A68" s="3">
         <v>58</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
@@ -2689,7 +2719,7 @@
         <f t="shared" si="1"/>
         <v>-0.70724882496017405</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <f t="shared" si="6"/>
         <v>1.2552727617520476</v>
       </c>
@@ -2697,7 +2727,7 @@
         <f t="shared" si="2"/>
         <v>-0.70724907867862474</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="6">
         <f t="shared" si="7"/>
         <v>1.2552730154704983</v>
       </c>
@@ -2710,7 +2740,7 @@
       <c r="A69" s="3">
         <v>59</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="6">
         <f t="shared" si="0"/>
         <v>0.59</v>
       </c>
@@ -2718,7 +2748,7 @@
         <f t="shared" si="1"/>
         <v>-0.69191608336427457</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="6">
         <f t="shared" si="6"/>
         <v>1.2482771062770583</v>
       </c>
@@ -2726,7 +2756,7 @@
         <f t="shared" si="2"/>
         <v>-0.69191633928229179</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="6">
         <f t="shared" si="7"/>
         <v>1.2482773621950756</v>
       </c>
@@ -2739,7 +2769,7 @@
       <c r="A70" s="3">
         <v>60</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -2747,7 +2777,7 @@
         <f t="shared" si="1"/>
         <v>-0.67679126419717195</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="6">
         <f t="shared" si="6"/>
         <v>1.2414337375922073</v>
       </c>
@@ -2755,7 +2785,7 @@
         <f t="shared" si="2"/>
         <v>-0.67679152226589945</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="6">
         <f t="shared" si="7"/>
         <v>1.2414339956609348</v>
       </c>
@@ -2768,7 +2798,7 @@
       <c r="A71" s="3">
         <v>61</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <f t="shared" si="0"/>
         <v>0.61</v>
       </c>
@@ -2776,7 +2806,7 @@
         <f t="shared" si="1"/>
         <v>-0.6618731226021366</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="6">
         <f t="shared" si="6"/>
         <v>1.2347405827026179</v>
       </c>
@@ -2784,7 +2814,7 @@
         <f t="shared" si="2"/>
         <v>-0.66187338277378371</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="6">
         <f t="shared" si="7"/>
         <v>1.234740842874265</v>
       </c>
@@ -2797,7 +2827,7 @@
       <c r="A72" s="3">
         <v>62</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
@@ -2805,7 +2835,7 @@
         <f t="shared" si="1"/>
         <v>-0.64716042049071631</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="6">
         <f t="shared" si="6"/>
         <v>1.2281955810280214</v>
       </c>
@@ -2813,7 +2843,7 @@
         <f t="shared" si="2"/>
         <v>-0.64716068271854021</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="6">
         <f t="shared" si="7"/>
         <v>1.2281958432558453</v>
       </c>
@@ -2826,7 +2856,7 @@
       <c r="A73" s="3">
         <v>63</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
@@ -2834,7 +2864,7 @@
         <f t="shared" si="1"/>
         <v>-0.6326519263935535</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="6">
         <f t="shared" si="6"/>
         <v>1.221796684335823</v>
       </c>
@@ -2842,7 +2872,7 @@
         <f t="shared" si="2"/>
         <v>-0.63265219063184075</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="6">
         <f t="shared" si="7"/>
         <v>1.2217969485741103</v>
       </c>
@@ -2855,7 +2885,7 @@
       <c r="A74" s="3">
         <v>64</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="6">
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
@@ -2863,7 +2893,7 @@
         <f t="shared" si="1"/>
         <v>-0.61834641531325518</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="6">
         <f t="shared" si="6"/>
         <v>1.2155418566756473</v>
       </c>
@@ -2871,7 +2901,7 @@
         <f t="shared" si="2"/>
         <v>-0.61834668151730376</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="6">
         <f t="shared" si="7"/>
         <v>1.2155421228796959</v>
       </c>
@@ -2884,7 +2914,7 @@
       <c r="A75" s="3">
         <v>65</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="6">
         <f t="shared" ref="B75:B110" si="8" xml:space="preserve"> A75 * $B$7</f>
         <v>0.65</v>
       </c>
@@ -2892,7 +2922,7 @@
         <f t="shared" ref="C75:C110" si="9" xml:space="preserve"> SIN(B75) - D75</f>
         <v>-0.60424266857930642</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="6">
         <f t="shared" si="6"/>
         <v>1.209429074315346</v>
       </c>
@@ -2900,7 +2930,7 @@
         <f t="shared" ref="E75:E110" si="10" xml:space="preserve"> SIN(B75) - F75</f>
         <v>-0.60424293670540841</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="6">
         <f t="shared" si="7"/>
         <v>1.209429342441448</v>
       </c>
@@ -2913,7 +2943,7 @@
       <c r="A76" s="3">
         <v>66</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <f t="shared" si="8"/>
         <v>0.66</v>
       </c>
@@ -2921,7 +2951,7 @@
         <f t="shared" si="9"/>
         <v>-0.5903394737050125</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="6">
         <f t="shared" si="6"/>
         <v>1.2034563256784463</v>
       </c>
@@ -2929,7 +2959,7 @@
         <f t="shared" si="10"/>
         <v>-0.59033974371043585</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="6">
         <f t="shared" si="7"/>
         <v>1.2034565956838696</v>
       </c>
@@ -2942,7 +2972,7 @@
       <c r="A77" s="3">
         <v>67</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <f t="shared" si="8"/>
         <v>0.67</v>
       </c>
@@ -2950,7 +2980,7 @@
         <f t="shared" si="9"/>
         <v>-0.57663562424645942</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="6">
         <f t="shared" si="6"/>
         <v>1.1976216112830191</v>
       </c>
@@ -2958,7 +2988,7 @@
         <f t="shared" si="10"/>
         <v>-0.57663589608943133</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="6">
         <f t="shared" si="7"/>
         <v>1.197621883125991</v>
       </c>
@@ -2971,7 +3001,7 @@
       <c r="A78" s="3">
         <v>68</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="6">
         <f t="shared" si="8"/>
         <v>0.68</v>
       </c>
@@ -2979,7 +3009,7 @@
         <f t="shared" si="9"/>
         <v>-0.56312991966347969</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <f t="shared" si="6"/>
         <v>1.1919229436819483</v>
       </c>
@@ -2987,7 +3017,7 @@
         <f t="shared" si="10"/>
         <v>-0.56313019330316927</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="6">
         <f t="shared" si="7"/>
         <v>1.1919232173216379</v>
       </c>
@@ -3000,7 +3030,7 @@
       <c r="A79" s="3">
         <v>69</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="6">
         <f t="shared" si="8"/>
         <v>0.69000000000000006</v>
       </c>
@@ -3008,7 +3038,7 @@
         <f t="shared" si="9"/>
         <v>-0.54982116518261226</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="6">
         <f t="shared" ref="D79:D110" si="12" xml:space="preserve"> D78 + ($B$7/12) * (23 * C78 - 16 * C77 + 5 * C76)</f>
         <v>1.1863583474045802</v>
       </c>
@@ -3016,7 +3046,7 @@
         <f t="shared" si="10"/>
         <v>-0.54982144057911342</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="6">
         <f t="shared" ref="F79:F110" si="13">F78+$B$7*(55*E78 - 59*E77+37*E76-9*E75)/24</f>
         <v>1.1863586228010814</v>
       </c>
@@ -3029,7 +3059,7 @@
       <c r="A80" s="3">
         <v>70</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="6">
         <f t="shared" si="8"/>
         <v>0.70000000000000007</v>
       </c>
@@ -3037,7 +3067,7 @@
         <f t="shared" si="9"/>
         <v>-0.53670817166204177</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="6">
         <f t="shared" si="12"/>
         <v>1.1809258588997329</v>
       </c>
@@ -3045,7 +3075,7 @@
         <f t="shared" si="10"/>
         <v>-0.53670844877635726</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="6">
         <f t="shared" si="13"/>
         <v>1.1809261360140484</v>
       </c>
@@ -3058,7 +3088,7 @@
       <c r="A81" s="3">
         <v>71</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="6">
         <f t="shared" si="8"/>
         <v>0.71</v>
       </c>
@@ -3066,7 +3096,7 @@
         <f t="shared" si="9"/>
         <v>-0.52378975545851081</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="6">
         <f t="shared" si="12"/>
         <v>1.1756235264800474</v>
       </c>
@@ -3074,7 +3104,7 @@
         <f t="shared" si="10"/>
         <v>-0.5237900342525349</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="6">
         <f t="shared" si="13"/>
         <v>1.1756238052740715</v>
       </c>
@@ -3087,7 +3117,7 @@
       <c r="A82" s="3">
         <v>72</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="6">
         <f t="shared" si="8"/>
         <v>0.72</v>
       </c>
@@ -3095,7 +3125,7 @@
         <f t="shared" si="9"/>
         <v>-0.51106473829618593</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="6">
         <f t="shared" si="12"/>
         <v>1.170449410267659</v>
       </c>
@@ -3103,7 +3133,7 @@
         <f t="shared" si="10"/>
         <v>-0.51106501873268884</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="6">
         <f t="shared" si="13"/>
         <v>1.1704496907041619</v>
       </c>
@@ -3116,7 +3146,7 @@
       <c r="A83" s="3">
         <v>73</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="6">
         <f t="shared" si="8"/>
         <v>0.73</v>
       </c>
@@ -3124,7 +3154,7 @@
         <f t="shared" si="9"/>
         <v>-0.49853194713747262</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="6">
         <f t="shared" si="12"/>
         <v>1.1654015821411705</v>
       </c>
@@ -3132,7 +3162,7 @@
         <f t="shared" si="10"/>
         <v>-0.49853222918008433</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="6">
         <f t="shared" si="13"/>
         <v>1.1654018641837822</v>
       </c>
@@ -3145,7 +3175,7 @@
       <c r="A84" s="3">
         <v>74</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="6">
         <f t="shared" si="8"/>
         <v>0.74</v>
       </c>
@@ -3153,7 +3183,7 @@
         <f t="shared" si="9"/>
         <v>-0.48619021405576257</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="6">
         <f t="shared" si="12"/>
         <v>1.1604781256839076</v>
       </c>
@@ -3161,7 +3191,7 @@
         <f t="shared" si="10"/>
         <v>-0.48619049766895683</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="6">
         <f t="shared" si="13"/>
         <v>1.1604784092971019</v>
       </c>
@@ -3174,7 +3204,7 @@
       <c r="A85" s="3">
         <v>75</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="6">
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
@@ -3182,7 +3212,7 @@
         <f t="shared" si="9"/>
         <v>-0.47403837611010358</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="6">
         <f t="shared" si="12"/>
         <v>1.1556771361334377</v>
       </c>
@@ -3190,7 +3220,7 @@
         <f t="shared" si="10"/>
         <v>-0.47403866125918259</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="6">
         <f t="shared" si="13"/>
         <v>1.1556774212825167</v>
       </c>
@@ -3203,7 +3233,7 @@
       <c r="A86" s="3">
         <v>76</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="6">
         <f t="shared" si="8"/>
         <v>0.76</v>
       </c>
@@ -3211,7 +3241,7 @@
         <f t="shared" si="9"/>
         <v>-0.46207527522178016</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="6">
         <f t="shared" si="12"/>
         <v>1.1509967203323315</v>
       </c>
@@ -3219,7 +3249,7 @@
         <f t="shared" si="10"/>
         <v>-0.46207556187285903</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="6">
         <f t="shared" si="13"/>
         <v>1.1509970069834103</v>
       </c>
@@ -3232,7 +3262,7 @@
       <c r="A87" s="3">
         <v>77</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="6">
         <f t="shared" si="8"/>
         <v>0.77</v>
       </c>
@@ -3240,7 +3270,7 @@
         <f t="shared" si="9"/>
         <v>-0.45029975805279299</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="6">
         <f t="shared" si="12"/>
         <v>1.1464349966801497</v>
       </c>
@@ -3248,7 +3278,7 @@
         <f t="shared" si="10"/>
         <v>-0.45030004617278441</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="6">
         <f t="shared" si="13"/>
         <v>1.1464352848001411</v>
       </c>
@@ -3261,7 +3291,7 @@
       <c r="A88" s="3">
         <v>78</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="6">
         <f t="shared" si="8"/>
         <v>0.78</v>
       </c>
@@ -3269,7 +3299,7 @@
         <f t="shared" si="9"/>
         <v>-0.43871067588622603</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="6">
         <f t="shared" si="12"/>
         <v>1.1419900950866362</v>
       </c>
@@ -3277,7 +3307,7 @@
         <f t="shared" si="10"/>
         <v>-0.4387109654428254</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="6">
         <f t="shared" si="13"/>
         <v>1.1419903846432355</v>
       </c>
@@ -3290,7 +3320,7 @@
       <c r="A89" s="3">
         <v>79</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="6">
         <f t="shared" si="8"/>
         <v>0.79</v>
       </c>
@@ -3298,7 +3328,7 @@
         <f t="shared" si="9"/>
         <v>-0.42730688450848886</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="6">
         <f t="shared" si="12"/>
         <v>1.1376601569260967</v>
       </c>
@@ -3306,7 +3336,7 @@
         <f t="shared" si="10"/>
         <v>-0.42730717547015939</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="6">
         <f t="shared" si="13"/>
         <v>1.1376604478877672</v>
       </c>
@@ -3319,7 +3349,7 @@
       <c r="A90" s="3">
         <v>80</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="6">
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
@@ -3327,7 +3357,7 @@
         <f t="shared" si="9"/>
         <v>-0.41608724409342412</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="6">
         <f t="shared" si="12"/>
         <v>1.1334433349929469</v>
       </c>
@@ -3335,7 +3365,7 @@
         <f t="shared" si="10"/>
         <v>-0.41608753642938223</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="6">
         <f t="shared" si="13"/>
         <v>1.133443627328905</v>
       </c>
@@ -3348,7 +3378,7 @@
       <c r="A91" s="3">
         <v>81</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="6">
         <f t="shared" si="8"/>
         <v>0.81</v>
       </c>
@@ -3356,7 +3386,7 @@
         <f t="shared" si="9"/>
         <v>-0.40505061908826756</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="6">
         <f t="shared" si="12"/>
         <v>1.1293377934584101</v>
       </c>
@@ -3364,7 +3394,7 @@
         <f t="shared" si="10"/>
         <v>-0.40505091276846816</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="6">
         <f t="shared" si="13"/>
         <v>1.1293380871386107</v>
       </c>
@@ -3377,7 +3407,7 @@
       <c r="A92" s="3">
         <v>82</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="6">
         <f t="shared" si="8"/>
         <v>0.82000000000000006</v>
       </c>
@@ -3385,7 +3415,7 @@
         <f t="shared" si="9"/>
         <v>-0.39419587810144929</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="6">
         <f t="shared" si="12"/>
         <v>1.1253417078283452</v>
       </c>
@@ -3393,7 +3423,7 @@
         <f t="shared" si="10"/>
         <v>-0.39419617309657207</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="6">
         <f t="shared" si="13"/>
         <v>1.125342002823468</v>
       </c>
@@ -3406,7 +3436,7 @@
       <c r="A93" s="3">
         <v>83</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="6">
         <f t="shared" si="8"/>
         <v>0.83000000000000007</v>
       </c>
@@ -3414,7 +3444,7 @@
         <f t="shared" si="9"/>
         <v>-0.38352189379222568</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="6">
         <f t="shared" si="12"/>
         <v>1.1214532649021884</v>
       </c>
@@ -3422,7 +3452,7 @@
         <f t="shared" si="10"/>
         <v>-0.3835221900736604</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="6">
         <f t="shared" si="13"/>
         <v>1.1214535611836232</v>
       </c>
@@ -3435,7 +3465,7 @@
       <c r="A94" s="3">
         <v>84</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="6">
         <f t="shared" si="8"/>
         <v>0.84</v>
       </c>
@@ -3443,7 +3473,7 @@
         <f t="shared" si="9"/>
         <v>-0.37302754276212979</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="6">
         <f t="shared" si="12"/>
         <v>1.1176706627329891</v>
       </c>
@@ -3451,7 +3481,7 @@
         <f t="shared" si="10"/>
         <v>-0.37302784030196279</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="6">
         <f t="shared" si="13"/>
         <v>1.1176709602728221</v>
       </c>
@@ -3464,7 +3494,7 @@
       <c r="A95" s="3">
         <v>85</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="6">
         <f t="shared" si="8"/>
         <v>0.85</v>
       </c>
@@ -3472,7 +3502,7 @@
         <f t="shared" si="9"/>
         <v>-0.36271170544822928</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="6">
         <f t="shared" si="12"/>
         <v>1.113992110588522</v>
       </c>
@@ -3480,7 +3510,7 @@
         <f t="shared" si="10"/>
         <v>-0.36271200421922989</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="6">
         <f t="shared" si="13"/>
         <v>1.1139924093595226</v>
       </c>
@@ -3493,7 +3523,7 @@
       <c r="A96" s="3">
         <v>86</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="6">
         <f t="shared" si="8"/>
         <v>0.86</v>
       </c>
@@ -3501,7 +3531,7 @@
         <f t="shared" si="9"/>
         <v>-0.35257326601818151</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="6">
         <f t="shared" si="12"/>
         <v>1.1104158289134585</v>
       </c>
@@ -3509,7 +3539,7 @@
         <f t="shared" si="10"/>
         <v>-0.35257356599378809</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="6">
         <f t="shared" si="13"/>
         <v>1.110416128889065</v>
       </c>
@@ -3522,7 +3552,7 @@
       <c r="A97" s="3">
         <v>87</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="6">
         <f t="shared" si="8"/>
         <v>0.87</v>
       </c>
@@ -3530,7 +3560,7 @@
         <f t="shared" si="9"/>
         <v>-0.34261111226707253</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="6">
         <f t="shared" si="12"/>
         <v>1.1069400492925776</v>
       </c>
@@ -3538,7 +3568,7 @@
         <f t="shared" si="10"/>
         <v>-0.34261141342137935</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="6">
         <f t="shared" si="13"/>
         <v>1.1069403504468844</v>
       </c>
@@ -3551,7 +3581,7 @@
       <c r="A98" s="3">
         <v>88</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="6">
         <f t="shared" si="8"/>
         <v>0.88</v>
       </c>
@@ -3559,7 +3589,7 @@
         <f t="shared" si="9"/>
         <v>-0.33282413551603085</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="6">
         <f t="shared" si="12"/>
         <v>1.1035630144150002</v>
       </c>
@@ -3567,7 +3597,7 @@
         <f t="shared" si="10"/>
         <v>-0.33282443782377502</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="6">
         <f t="shared" si="13"/>
         <v>1.1035633167227443</v>
       </c>
@@ -3580,7 +3610,7 @@
       <c r="A99" s="3">
         <v>89</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="6">
         <f t="shared" si="8"/>
         <v>0.89</v>
       </c>
@@ -3588,7 +3618,7 @@
         <f t="shared" si="9"/>
         <v>-0.32321123051260425</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="6">
         <f t="shared" si="12"/>
         <v>1.1002829780394281</v>
       </c>
@@ -3596,7 +3626,7 @@
         <f t="shared" si="10"/>
         <v>-0.32321153394915236</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="6">
         <f t="shared" si="13"/>
         <v>1.1002832814759762</v>
       </c>
@@ -3609,7 +3639,7 @@
       <c r="A100" s="3">
         <v>90</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="6">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
@@ -3617,7 +3647,7 @@
         <f t="shared" si="9"/>
         <v>-0.31377129533288739</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="6">
         <f t="shared" si="12"/>
         <v>1.0970982049603708</v>
       </c>
@@ -3625,7 +3655,7 @@
         <f t="shared" si="10"/>
         <v>-0.31377159987422287</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="6">
         <f t="shared" si="13"/>
         <v>1.0970985095017063</v>
       </c>
@@ -3638,7 +3668,7 @@
       <c r="A101" s="3">
         <v>91</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="6">
         <f t="shared" si="8"/>
         <v>0.91</v>
       </c>
@@ -3646,7 +3676,7 @@
         <f t="shared" si="9"/>
         <v>-0.30450323128539125</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D101" s="6">
         <f t="shared" si="12"/>
         <v>1.0940069709753417</v>
       </c>
@@ -3654,7 +3684,7 @@
         <f t="shared" si="10"/>
         <v>-0.30450353690810195</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="6">
         <f t="shared" si="13"/>
         <v>1.0940072765980524</v>
       </c>
@@ -3667,7 +3697,7 @@
       <c r="A102" s="3">
         <v>92</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="6">
         <f t="shared" si="8"/>
         <v>0.92</v>
       </c>
@@ -3675,7 +3705,7 @@
         <f t="shared" si="9"/>
         <v>-0.29540594281664156</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="6">
         <f t="shared" si="12"/>
         <v>1.0910075628530076</v>
       </c>
@@ -3683,7 +3713,7 @@
         <f t="shared" si="10"/>
         <v>-0.29540624949790684</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="6">
         <f t="shared" si="13"/>
         <v>1.0910078695342729</v>
       </c>
@@ -3696,7 +3726,7 @@
       <c r="A103" s="3">
         <v>93</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="6">
         <f t="shared" si="8"/>
         <v>0.93</v>
       </c>
@@ -3704,7 +3734,7 @@
         <f t="shared" si="9"/>
         <v>-0.28647833741849626</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="6">
         <f t="shared" si="12"/>
         <v>1.0880982783022735</v>
       </c>
@@ -3712,7 +3742,7 @@
         <f t="shared" si="10"/>
         <v>-0.28647864513607457</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="6">
         <f t="shared" si="13"/>
         <v>1.0880985860198518</v>
       </c>
@@ -3725,7 +3755,7 @@
       <c r="A104" s="3">
         <v>94</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="6">
         <f t="shared" si="8"/>
         <v>0.94000000000000006</v>
       </c>
@@ -3733,7 +3763,7 @@
         <f t="shared" si="9"/>
         <v>-0.27771932553717071</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="6">
         <f t="shared" si="12"/>
         <v>1.085277425942285</v>
       </c>
@@ -3741,7 +3771,7 @@
         <f t="shared" si="10"/>
         <v>-0.27771963426938762</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="6">
         <f t="shared" si="13"/>
         <v>1.0852777346745019</v>
       </c>
@@ -3754,7 +3784,7 @@
       <c r="A105" s="3">
         <v>95</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="6">
         <f t="shared" si="8"/>
         <v>0.95000000000000007</v>
       </c>
@@ -3762,7 +3792,7 @@
         <f t="shared" si="9"/>
         <v>-0.26912782048395945</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" s="6">
         <f t="shared" si="12"/>
         <v>1.0825433252733332</v>
       </c>
@@ -3770,7 +3800,7 @@
         <f t="shared" si="10"/>
         <v>-0.26912813020969584</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="6">
         <f t="shared" si="13"/>
         <v>1.0825436349990696</v>
       </c>
@@ -3783,7 +3813,7 @@
       <c r="A106" s="3">
         <v>96</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="6">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
@@ -3791,7 +3821,7 @@
         <f t="shared" si="9"/>
         <v>-0.26070273834764435</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" s="6">
         <f t="shared" si="12"/>
         <v>1.0798943066486426</v>
       </c>
@@ -3799,7 +3829,7 @@
         <f t="shared" si="10"/>
         <v>-0.26070304904632424</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="6">
         <f t="shared" si="13"/>
         <v>1.0798946173473225</v>
       </c>
@@ -3812,7 +3842,7 @@
       <c r="A107" s="3">
         <v>97</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="6">
         <f t="shared" si="8"/>
         <v>0.97</v>
       </c>
@@ -3820,7 +3850,7 @@
         <f t="shared" si="9"/>
         <v>-0.25244299790857727</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" s="6">
         <f t="shared" si="12"/>
         <v>1.0773287112470273</v>
       </c>
@@ -3828,7 +3858,7 @@
         <f t="shared" si="10"/>
         <v>-0.25244330956015648</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="6">
         <f t="shared" si="13"/>
         <v>1.0773290228986065</v>
       </c>
@@ -3841,7 +3871,7 @@
       <c r="A108" s="3">
         <v>98</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="6">
         <f t="shared" si="8"/>
         <v>0.98</v>
       </c>
@@ -3849,7 +3879,7 @@
         <f t="shared" si="9"/>
         <v>-0.24434752055442788</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D108" s="6">
         <f t="shared" si="12"/>
         <v>1.0748448910463984</v>
       </c>
@@ -3857,7 +3887,7 @@
         <f t="shared" si="10"/>
         <v>-0.24434783313938202</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="6">
         <f t="shared" si="13"/>
         <v>1.0748452036313525</v>
       </c>
@@ -3870,7 +3900,7 @@
       <c r="A109" s="3">
         <v>99</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="6">
         <f t="shared" si="8"/>
         <v>0.99</v>
       </c>
@@ -3878,7 +3908,7 @@
         <f t="shared" si="9"/>
         <v>-0.23641523019758381</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D109" s="6">
         <f t="shared" si="12"/>
         <v>1.0724412087981043</v>
       </c>
@@ -3886,7 +3916,7 @@
         <f t="shared" si="10"/>
         <v>-0.23641554369689721</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="6">
         <f t="shared" si="13"/>
         <v>1.0724415222974177</v>
       </c>
@@ -3899,7 +3929,7 @@
       <c r="A110" s="3">
         <v>100</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -3907,7 +3937,7 @@
         <f t="shared" si="9"/>
         <v>-0.22864505319419415</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="6">
         <f t="shared" si="12"/>
         <v>1.0701160380020907</v>
       </c>
@@ -3915,7 +3945,7 @@
         <f t="shared" si="10"/>
         <v>-0.2286453675893485</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="6">
         <f t="shared" si="13"/>
         <v>1.070116352397245</v>
       </c>
@@ -3926,27 +3956,27 @@
     </row>
     <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
-      <c r="B111" s="7"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="12">
+      <c r="D111" s="11">
         <f t="shared" ref="D111:F111" si="14">SUM(D10:D60)</f>
         <v>82.159233938201766</v>
       </c>
       <c r="E111" s="3"/>
-      <c r="F111" s="12">
+      <c r="F111" s="11">
         <f t="shared" si="14"/>
         <v>82.159240216769874</v>
       </c>
-      <c r="G111" s="10">
+      <c r="G111" s="9">
         <f>SUM(G10:G60)</f>
         <v>82.176522595981282</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="11">
+      <c r="B112" s="10">
         <f xml:space="preserve"> ABS(Таблица1[[#Totals],[Точное значение]] - Таблица1[[#Totals],[Адамс 3]])</f>
         <v>1.7288657779516825E-2</v>
       </c>
@@ -3957,10 +3987,10 @@
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="11">
+      <c r="B113" s="10">
         <f xml:space="preserve"> ABS(Таблица1[[#Totals],[Точное значение]] - Таблица1[[#Totals],[Адамс 4]])</f>
         <v>1.7282379211408738E-2</v>
       </c>
@@ -3971,10 +4001,10 @@
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="11" t="b">
+      <c r="B114" s="10" t="b">
         <f xml:space="preserve"> IF(B112 &gt; B113, TRUE, FALSE)</f>
         <v>1</v>
       </c>
@@ -3995,7 +4025,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
